--- a/raw_data/20200818_saline/20200818_Sensor1_Test_24.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_24.xlsx
@@ -1,1596 +1,2012 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A55A784-CEBE-49A3-9661-FCE1CF6FC931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>20885.616034</v>
+        <v>20885.616033999999</v>
       </c>
       <c r="B2" s="1">
-        <v>5.801560</v>
+        <v>5.8015600000000003</v>
       </c>
       <c r="C2" s="1">
-        <v>895.046000</v>
+        <v>895.04600000000005</v>
       </c>
       <c r="D2" s="1">
-        <v>-199.404000</v>
+        <v>-199.404</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>20896.320153</v>
+        <v>20896.320153000001</v>
       </c>
       <c r="G2" s="1">
-        <v>5.804533</v>
+        <v>5.8045330000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>912.855000</v>
+        <v>912.85500000000002</v>
       </c>
       <c r="I2" s="1">
-        <v>-169.142000</v>
+        <v>-169.142</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>20906.910266</v>
+        <v>20906.910265999999</v>
       </c>
       <c r="L2" s="1">
-        <v>5.807475</v>
+        <v>5.8074750000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>936.041000</v>
+        <v>936.04100000000005</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.870000</v>
+        <v>-119.87</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>20917.300963</v>
+        <v>20917.300963000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>5.810361</v>
+        <v>5.8103610000000003</v>
       </c>
       <c r="R2" s="1">
-        <v>942.785000</v>
+        <v>942.78499999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.561000</v>
+        <v>-103.56100000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>20927.857314</v>
+        <v>20927.857314000001</v>
       </c>
       <c r="V2" s="1">
         <v>5.813294</v>
       </c>
       <c r="W2" s="1">
-        <v>949.209000</v>
+        <v>949.20899999999995</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.534600</v>
+        <v>-88.534599999999998</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>20938.312450</v>
+        <v>20938.312450000001</v>
       </c>
       <c r="AA2" s="1">
         <v>5.816198</v>
       </c>
       <c r="AB2" s="1">
-        <v>956.244000</v>
+        <v>956.24400000000003</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.253500</v>
+        <v>-77.253500000000003</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>20949.183268</v>
+        <v>20949.183268000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>5.819218</v>
+        <v>5.8192180000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>960.983000</v>
+        <v>960.98299999999995</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.182000</v>
+        <v>-75.182000000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>20959.614662</v>
       </c>
       <c r="AK2" s="1">
-        <v>5.822115</v>
+        <v>5.8221150000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>968.235000</v>
+        <v>968.23500000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-80.048700</v>
+        <v>-80.048699999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>20969.873879</v>
+        <v>20969.873878999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>5.824965</v>
+        <v>5.8249649999999997</v>
       </c>
       <c r="AQ2" s="1">
-        <v>976.390000</v>
+        <v>976.39</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.807700</v>
+        <v>-91.807699999999997</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>20980.481133</v>
+        <v>20980.481133000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>5.827911</v>
+        <v>5.8279110000000003</v>
       </c>
       <c r="AV2" s="1">
-        <v>986.363000</v>
+        <v>986.36300000000006</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.679000</v>
+        <v>-109.679</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>20991.274267</v>
+        <v>20991.274267000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>5.830910</v>
+        <v>5.8309100000000003</v>
       </c>
       <c r="BA2" s="1">
-        <v>994.729000</v>
+        <v>994.72900000000004</v>
       </c>
       <c r="BB2" s="1">
-        <v>-125.491000</v>
+        <v>-125.491</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>21001.462095</v>
+        <v>21001.462094999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>5.833739</v>
+        <v>5.8337389999999996</v>
       </c>
       <c r="BF2" s="1">
-        <v>1033.740000</v>
+        <v>1033.74</v>
       </c>
       <c r="BG2" s="1">
-        <v>-198.012000</v>
+        <v>-198.012</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>21012.455423</v>
+        <v>21012.455422999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>5.836793</v>
+        <v>5.8367930000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1100.850000</v>
+        <v>1100.8499999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-315.742000</v>
+        <v>-315.74200000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>21023.856960</v>
+        <v>21023.856960000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>5.839960</v>
+        <v>5.8399599999999996</v>
       </c>
       <c r="BP2" s="1">
-        <v>1209.800000</v>
+        <v>1209.8</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-501.332000</v>
+        <v>-501.33199999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>21034.318114</v>
+        <v>21034.318114000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>5.842866</v>
+        <v>5.8428659999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1332.580000</v>
+        <v>1332.58</v>
       </c>
       <c r="BV2" s="1">
-        <v>-705.296000</v>
+        <v>-705.29600000000005</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>21045.056483</v>
       </c>
       <c r="BY2" s="1">
-        <v>5.845849</v>
+        <v>5.8458490000000003</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1469.440000</v>
+        <v>1469.44</v>
       </c>
       <c r="CA2" s="1">
-        <v>-922.776000</v>
+        <v>-922.77599999999995</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>21056.024998</v>
+        <v>21056.024998000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>5.848896</v>
+        <v>5.8488959999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1829.790000</v>
+        <v>1829.79</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1439.170000</v>
+        <v>-1439.17</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>20886.336182</v>
+        <v>20886.336181999999</v>
       </c>
       <c r="B3" s="1">
-        <v>5.801760</v>
+        <v>5.8017599999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>895.106000</v>
+        <v>895.10599999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-199.563000</v>
+        <v>-199.56299999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>20896.673304</v>
       </c>
       <c r="G3" s="1">
-        <v>5.804631</v>
+        <v>5.8046309999999997</v>
       </c>
       <c r="H3" s="1">
-        <v>913.013000</v>
+        <v>913.01300000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-168.842000</v>
+        <v>-168.84200000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>20907.158234</v>
+        <v>20907.158233999999</v>
       </c>
       <c r="L3" s="1">
         <v>5.807544</v>
       </c>
       <c r="M3" s="1">
-        <v>935.932000</v>
+        <v>935.93200000000002</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.661000</v>
+        <v>-119.661</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>20917.664033</v>
+        <v>20917.664033000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>5.810462</v>
+        <v>5.8104620000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>942.771000</v>
+        <v>942.77099999999996</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.597000</v>
+        <v>-103.59699999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>20928.523438</v>
       </c>
       <c r="V3" s="1">
-        <v>5.813479</v>
+        <v>5.8134790000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>949.248000</v>
+        <v>949.24800000000005</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.598200</v>
+        <v>-88.598200000000006</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>20939.001888</v>
+        <v>20939.001887999999</v>
       </c>
       <c r="AA3" s="1">
         <v>5.816389</v>
       </c>
       <c r="AB3" s="1">
-        <v>956.302000</v>
+        <v>956.30200000000002</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.324900</v>
+        <v>-77.3249</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>20949.599917</v>
       </c>
       <c r="AF3" s="1">
-        <v>5.819333</v>
+        <v>5.8193330000000003</v>
       </c>
       <c r="AG3" s="1">
-        <v>961.010000</v>
+        <v>961.01</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.149100</v>
+        <v>-75.149100000000004</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>20959.966788</v>
+        <v>20959.966788000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>5.822213</v>
+        <v>5.8222129999999996</v>
       </c>
       <c r="AL3" s="1">
-        <v>968.244000</v>
+        <v>968.24400000000003</v>
       </c>
       <c r="AM3" s="1">
-        <v>-80.049500</v>
+        <v>-80.049499999999995</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>20970.242407</v>
+        <v>20970.242407000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>5.825067</v>
+        <v>5.8250669999999998</v>
       </c>
       <c r="AQ3" s="1">
-        <v>976.419000</v>
+        <v>976.41899999999998</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.833100</v>
+        <v>-91.833100000000002</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>20980.878122</v>
+        <v>20980.878121999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>5.828022</v>
+        <v>5.8280219999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>986.370000</v>
+        <v>986.37</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.697000</v>
+        <v>-109.697</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>20991.658170</v>
+        <v>20991.658169999999</v>
       </c>
       <c r="AZ3" s="1">
         <v>5.831016</v>
       </c>
       <c r="BA3" s="1">
-        <v>994.712000</v>
+        <v>994.71199999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-125.484000</v>
+        <v>-125.48399999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>21001.867325</v>
+        <v>21001.867324999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>5.833852</v>
+        <v>5.8338520000000003</v>
       </c>
       <c r="BF3" s="1">
-        <v>1033.760000</v>
+        <v>1033.76</v>
       </c>
       <c r="BG3" s="1">
-        <v>-198.049000</v>
+        <v>-198.04900000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>21012.914223</v>
       </c>
       <c r="BJ3" s="1">
-        <v>5.836921</v>
+        <v>5.8369210000000002</v>
       </c>
       <c r="BK3" s="1">
-        <v>1100.880000</v>
+        <v>1100.8800000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-315.770000</v>
+        <v>-315.77</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>21023.975008</v>
+        <v>21023.975008000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>5.839993</v>
+        <v>5.8399929999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1209.770000</v>
+        <v>1209.77</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-501.352000</v>
+        <v>-501.35199999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>21034.758034</v>
+        <v>21034.758033999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>5.842988</v>
+        <v>5.8429880000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1332.550000</v>
+        <v>1332.55</v>
       </c>
       <c r="BV3" s="1">
-        <v>-705.397000</v>
+        <v>-705.39700000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>21045.524195</v>
+        <v>21045.524195000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>5.845979</v>
+        <v>5.8459789999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1469.500000</v>
+        <v>1469.5</v>
       </c>
       <c r="CA3" s="1">
-        <v>-922.745000</v>
+        <v>-922.745</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>21056.616725</v>
       </c>
       <c r="CD3" s="1">
-        <v>5.849060</v>
+        <v>5.8490599999999997</v>
       </c>
       <c r="CE3" s="1">
-        <v>1830.690000</v>
+        <v>1830.69</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1440.090000</v>
+        <v>-1440.09</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>20886.676935</v>
       </c>
       <c r="B4" s="1">
-        <v>5.801855</v>
+        <v>5.8018549999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>894.981000</v>
+        <v>894.98099999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-199.710000</v>
+        <v>-199.71</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>20897.016040</v>
+        <v>20897.016039999999</v>
       </c>
       <c r="G4" s="1">
-        <v>5.804727</v>
+        <v>5.8047269999999997</v>
       </c>
       <c r="H4" s="1">
-        <v>913.105000</v>
+        <v>913.10500000000002</v>
       </c>
       <c r="I4" s="1">
-        <v>-168.826000</v>
+        <v>-168.82599999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>20907.801054</v>
       </c>
       <c r="L4" s="1">
-        <v>5.807723</v>
+        <v>5.8077230000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>935.934000</v>
+        <v>935.93399999999997</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.732000</v>
+        <v>-119.732</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>20918.315741</v>
+        <v>20918.315740999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>5.810643</v>
+        <v>5.8106429999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>942.723000</v>
+        <v>942.72299999999996</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.576000</v>
+        <v>-103.57599999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>20928.906814</v>
+        <v>20928.906814000002</v>
       </c>
       <c r="V4" s="1">
-        <v>5.813585</v>
+        <v>5.8135849999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>949.276000</v>
+        <v>949.27599999999995</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.584500</v>
+        <v>-88.584500000000006</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>20939.392240</v>
+        <v>20939.392240000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>5.816498</v>
+        <v>5.8164980000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>956.261000</v>
+        <v>956.26099999999997</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.287100</v>
+        <v>-77.287099999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>20949.950082</v>
+        <v>20949.950081999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>5.819431</v>
+        <v>5.8194309999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>961.002000</v>
+        <v>961.00199999999995</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.231200</v>
+        <v>-75.231200000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>20960.316266</v>
+        <v>20960.316266000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>5.822310</v>
+        <v>5.8223099999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>968.226000</v>
+        <v>968.226</v>
       </c>
       <c r="AM4" s="1">
-        <v>-80.022200</v>
+        <v>-80.022199999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>20970.599558</v>
+        <v>20970.599558000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>5.825167</v>
+        <v>5.8251670000000004</v>
       </c>
       <c r="AQ4" s="1">
-        <v>976.405000</v>
+        <v>976.40499999999997</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.834900</v>
+        <v>-91.834900000000005</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>20981.300218</v>
       </c>
       <c r="AU4" s="1">
-        <v>5.828139</v>
+        <v>5.8281390000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>986.388000</v>
+        <v>986.38800000000003</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.690000</v>
+        <v>-109.69</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>20992.068858</v>
+        <v>20992.068857999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>5.831130</v>
+        <v>5.8311299999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>994.722000</v>
+        <v>994.72199999999998</v>
       </c>
       <c r="BB4" s="1">
-        <v>-125.487000</v>
+        <v>-125.48699999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>21002.211054</v>
+        <v>21002.211053999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>5.833948</v>
+        <v>5.8339480000000004</v>
       </c>
       <c r="BF4" s="1">
-        <v>1033.740000</v>
+        <v>1033.74</v>
       </c>
       <c r="BG4" s="1">
-        <v>-198.037000</v>
+        <v>-198.03700000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>21013.315519</v>
       </c>
       <c r="BJ4" s="1">
-        <v>5.837032</v>
+        <v>5.8370319999999998</v>
       </c>
       <c r="BK4" s="1">
-        <v>1100.840000</v>
+        <v>1100.8399999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-315.740000</v>
+        <v>-315.74</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>21024.402096</v>
+        <v>21024.402096000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>5.840112</v>
+        <v>5.8401120000000004</v>
       </c>
       <c r="BP4" s="1">
-        <v>1209.760000</v>
+        <v>1209.76</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-501.381000</v>
+        <v>-501.38099999999997</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>21035.193521</v>
+        <v>21035.193521000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>5.843109</v>
+        <v>5.8431090000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1332.460000</v>
+        <v>1332.46</v>
       </c>
       <c r="BV4" s="1">
-        <v>-705.504000</v>
+        <v>-705.50400000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>21045.971124</v>
       </c>
       <c r="BY4" s="1">
-        <v>5.846103</v>
+        <v>5.8461030000000003</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1469.550000</v>
+        <v>1469.55</v>
       </c>
       <c r="CA4" s="1">
-        <v>-922.716000</v>
+        <v>-922.71600000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>21057.157364</v>
+        <v>21057.157363999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>5.849210</v>
+        <v>5.8492100000000002</v>
       </c>
       <c r="CE4" s="1">
-        <v>1830.710000</v>
+        <v>1830.71</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1438.520000</v>
+        <v>-1438.52</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>20887.020165</v>
+        <v>20887.020165000002</v>
       </c>
       <c r="B5" s="1">
-        <v>5.801950</v>
+        <v>5.8019499999999997</v>
       </c>
       <c r="C5" s="1">
-        <v>895.116000</v>
+        <v>895.11599999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-199.662000</v>
+        <v>-199.66200000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>20897.669304</v>
+        <v>20897.669303999999</v>
       </c>
       <c r="G5" s="1">
-        <v>5.804908</v>
+        <v>5.8049080000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>912.818000</v>
+        <v>912.81799999999998</v>
       </c>
       <c r="I5" s="1">
-        <v>-169.359000</v>
+        <v>-169.35900000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>20908.195369</v>
+        <v>20908.195369000001</v>
       </c>
       <c r="L5" s="1">
-        <v>5.807832</v>
+        <v>5.8078320000000003</v>
       </c>
       <c r="M5" s="1">
-        <v>936.199000</v>
+        <v>936.19899999999996</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.768000</v>
+        <v>-119.768</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>20918.706092</v>
       </c>
       <c r="Q5" s="1">
-        <v>5.810752</v>
+        <v>5.8107519999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>942.717000</v>
+        <v>942.71699999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.575000</v>
+        <v>-103.575</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>20929.249549</v>
       </c>
       <c r="V5" s="1">
-        <v>5.813680</v>
+        <v>5.8136799999999997</v>
       </c>
       <c r="W5" s="1">
-        <v>949.212000</v>
+        <v>949.21199999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.543800</v>
+        <v>-88.543800000000005</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>20939.740463</v>
+        <v>20939.740462999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>5.816595</v>
+        <v>5.8165950000000004</v>
       </c>
       <c r="AB5" s="1">
-        <v>956.175000</v>
+        <v>956.17499999999995</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.324600</v>
+        <v>-77.324600000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>20950.290339</v>
+        <v>20950.290338999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>5.819525</v>
+        <v>5.8195249999999996</v>
       </c>
       <c r="AG5" s="1">
-        <v>960.958000</v>
+        <v>960.95799999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.203400</v>
+        <v>-75.203400000000002</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>20960.739061</v>
       </c>
       <c r="AK5" s="1">
-        <v>5.822428</v>
+        <v>5.8224280000000004</v>
       </c>
       <c r="AL5" s="1">
-        <v>968.254000</v>
+        <v>968.25400000000002</v>
       </c>
       <c r="AM5" s="1">
-        <v>-80.069300</v>
+        <v>-80.069299999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>20971.023606</v>
+        <v>20971.023605999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>5.825284</v>
+        <v>5.8252839999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>976.403000</v>
+        <v>976.40300000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.803400</v>
+        <v>-91.803399999999996</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>20981.605288</v>
+        <v>20981.605287999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>5.828224</v>
+        <v>5.8282239999999996</v>
       </c>
       <c r="AV5" s="1">
-        <v>986.360000</v>
+        <v>986.36</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.687000</v>
+        <v>-109.687</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>20992.399721</v>
+        <v>20992.399721000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>5.831222</v>
+        <v>5.8312220000000003</v>
       </c>
       <c r="BA5" s="1">
-        <v>994.714000</v>
+        <v>994.71400000000006</v>
       </c>
       <c r="BB5" s="1">
-        <v>-125.467000</v>
+        <v>-125.467</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>21002.571149</v>
+        <v>21002.571148999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>5.834048</v>
+        <v>5.8340480000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1033.730000</v>
+        <v>1033.73</v>
       </c>
       <c r="BG5" s="1">
-        <v>-198.030000</v>
+        <v>-198.03</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>21013.691949</v>
       </c>
       <c r="BJ5" s="1">
-        <v>5.837137</v>
+        <v>5.8371370000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1100.890000</v>
+        <v>1100.8900000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-315.764000</v>
+        <v>-315.76400000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>21024.800351</v>
+        <v>21024.800351000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>5.840222</v>
+        <v>5.8402219999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1209.760000</v>
+        <v>1209.76</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-501.389000</v>
+        <v>-501.38900000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>21035.624048</v>
+        <v>21035.624048000001</v>
       </c>
       <c r="BT5" s="1">
         <v>5.843229</v>
       </c>
       <c r="BU5" s="1">
-        <v>1332.440000</v>
+        <v>1332.44</v>
       </c>
       <c r="BV5" s="1">
-        <v>-705.559000</v>
+        <v>-705.55899999999997</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>21046.399634</v>
+        <v>21046.399634000001</v>
       </c>
       <c r="BY5" s="1">
         <v>5.846222</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1469.550000</v>
+        <v>1469.55</v>
       </c>
       <c r="CA5" s="1">
-        <v>-922.737000</v>
+        <v>-922.73699999999997</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>21057.695070</v>
+        <v>21057.695070000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>5.849360</v>
+        <v>5.8493599999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1829.950000</v>
+        <v>1829.95</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1440.240000</v>
+        <v>-1440.24</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>20887.670420</v>
+        <v>20887.670419999999</v>
       </c>
       <c r="B6" s="1">
-        <v>5.802131</v>
+        <v>5.8021310000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>894.959000</v>
+        <v>894.95899999999995</v>
       </c>
       <c r="D6" s="1">
-        <v>-199.720000</v>
+        <v>-199.72</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>20898.048214</v>
+        <v>20898.048213999999</v>
       </c>
       <c r="G6" s="1">
-        <v>5.805013</v>
+        <v>5.8050129999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>912.727000</v>
+        <v>912.72699999999998</v>
       </c>
       <c r="I6" s="1">
-        <v>-168.941000</v>
+        <v>-168.941</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>20908.539594</v>
+        <v>20908.539594000002</v>
       </c>
       <c r="L6" s="1">
-        <v>5.807928</v>
+        <v>5.8079280000000004</v>
       </c>
       <c r="M6" s="1">
-        <v>935.802000</v>
+        <v>935.80200000000002</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.780000</v>
+        <v>-119.78</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>20919.053787</v>
+        <v>20919.053787000001</v>
       </c>
       <c r="Q6" s="1">
         <v>5.810848</v>
       </c>
       <c r="R6" s="1">
-        <v>942.745000</v>
+        <v>942.745</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.533000</v>
+        <v>-103.533</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>20929.592284</v>
+        <v>20929.592283999998</v>
       </c>
       <c r="V6" s="1">
-        <v>5.813776</v>
+        <v>5.8137759999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>949.291000</v>
+        <v>949.29100000000005</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.600500</v>
+        <v>-88.600499999999997</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>20940.091599</v>
+        <v>20940.091598999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>5.816692</v>
+        <v>5.8166919999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>956.211000</v>
+        <v>956.21100000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.334600</v>
+        <v>-77.334599999999995</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>20950.710485</v>
@@ -1599,28 +2015,28 @@
         <v>5.819642</v>
       </c>
       <c r="AG6" s="1">
-        <v>960.917000</v>
+        <v>960.91700000000003</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.196000</v>
+        <v>-75.195999999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>20961.013347</v>
       </c>
       <c r="AK6" s="1">
-        <v>5.822504</v>
+        <v>5.8225040000000003</v>
       </c>
       <c r="AL6" s="1">
-        <v>968.253000</v>
+        <v>968.25300000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-80.047900</v>
+        <v>-80.047899999999998</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>20971.320215</v>
@@ -1629,28 +2045,28 @@
         <v>5.825367</v>
       </c>
       <c r="AQ6" s="1">
-        <v>976.374000</v>
+        <v>976.37400000000002</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.792300</v>
+        <v>-91.792299999999997</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>20981.972791</v>
       </c>
       <c r="AU6" s="1">
-        <v>5.828326</v>
+        <v>5.8283259999999997</v>
       </c>
       <c r="AV6" s="1">
-        <v>986.368000</v>
+        <v>986.36800000000005</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.702000</v>
+        <v>-109.702</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>20992.732505</v>
@@ -1659,58 +2075,58 @@
         <v>5.831315</v>
       </c>
       <c r="BA6" s="1">
-        <v>994.702000</v>
+        <v>994.702</v>
       </c>
       <c r="BB6" s="1">
-        <v>-125.466000</v>
+        <v>-125.46599999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>21002.935238</v>
+        <v>21002.935237999998</v>
       </c>
       <c r="BE6" s="1">
         <v>5.834149</v>
       </c>
       <c r="BF6" s="1">
-        <v>1033.740000</v>
+        <v>1033.74</v>
       </c>
       <c r="BG6" s="1">
-        <v>-198.018000</v>
+        <v>-198.018</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>21014.438924</v>
+        <v>21014.438923999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>5.837344</v>
+        <v>5.8373439999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1100.860000</v>
+        <v>1100.8599999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-315.757000</v>
+        <v>-315.75700000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>21025.222942</v>
       </c>
       <c r="BO6" s="1">
-        <v>5.840340</v>
+        <v>5.8403400000000003</v>
       </c>
       <c r="BP6" s="1">
-        <v>1209.770000</v>
+        <v>1209.77</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-501.387000</v>
+        <v>-501.387</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>21036.033744</v>
@@ -1719,1555 +2135,1555 @@
         <v>5.843343</v>
       </c>
       <c r="BU6" s="1">
-        <v>1332.400000</v>
+        <v>1332.4</v>
       </c>
       <c r="BV6" s="1">
-        <v>-705.611000</v>
+        <v>-705.61099999999999</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>21046.822226</v>
       </c>
       <c r="BY6" s="1">
-        <v>5.846340</v>
+        <v>5.8463399999999996</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1469.440000</v>
+        <v>1469.44</v>
       </c>
       <c r="CA6" s="1">
-        <v>-922.731000</v>
+        <v>-922.73099999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>21058.237156</v>
+        <v>21058.237155999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>5.849510</v>
+        <v>5.8495100000000004</v>
       </c>
       <c r="CE6" s="1">
-        <v>1831.220000</v>
+        <v>1831.22</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1439.340000</v>
+        <v>-1439.34</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>20888.045395</v>
+        <v>20888.045395000001</v>
       </c>
       <c r="B7" s="1">
-        <v>5.802235</v>
+        <v>5.8022349999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>894.907000</v>
+        <v>894.90700000000004</v>
       </c>
       <c r="D7" s="1">
-        <v>-199.606000</v>
+        <v>-199.60599999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>20898.395414</v>
+        <v>20898.395413999999</v>
       </c>
       <c r="G7" s="1">
-        <v>5.805110</v>
+        <v>5.80511</v>
       </c>
       <c r="H7" s="1">
-        <v>912.576000</v>
+        <v>912.57600000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-168.911000</v>
+        <v>-168.911</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>20908.887784</v>
+        <v>20908.887783999999</v>
       </c>
       <c r="L7" s="1">
-        <v>5.808024</v>
+        <v>5.8080239999999996</v>
       </c>
       <c r="M7" s="1">
-        <v>935.950000</v>
+        <v>935.95</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.899000</v>
+        <v>-119.899</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>20919.406974</v>
+        <v>20919.406974000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>5.810946</v>
+        <v>5.8109460000000004</v>
       </c>
       <c r="R7" s="1">
-        <v>942.792000</v>
+        <v>942.79200000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.575000</v>
+        <v>-103.575</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>20930.008465</v>
+        <v>20930.008464999999</v>
       </c>
       <c r="V7" s="1">
-        <v>5.813891</v>
+        <v>5.8138909999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>949.214000</v>
+        <v>949.21400000000006</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.546100</v>
+        <v>-88.546099999999996</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>20940.521668</v>
+        <v>20940.521668000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>5.816812</v>
+        <v>5.8168119999999996</v>
       </c>
       <c r="AB7" s="1">
-        <v>956.231000</v>
+        <v>956.23099999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.341000</v>
+        <v>-77.340999999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>20950.990194</v>
+        <v>20950.990194000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>5.819719</v>
+        <v>5.8197190000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>960.936000</v>
+        <v>960.93600000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.201400</v>
+        <v>-75.201400000000007</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>20961.360579</v>
       </c>
       <c r="AK7" s="1">
-        <v>5.822600</v>
+        <v>5.8226000000000004</v>
       </c>
       <c r="AL7" s="1">
-        <v>968.226000</v>
+        <v>968.226</v>
       </c>
       <c r="AM7" s="1">
-        <v>-80.022800</v>
+        <v>-80.022800000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>20971.679349</v>
+        <v>20971.679348999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>5.825466</v>
+        <v>5.8254659999999996</v>
       </c>
       <c r="AQ7" s="1">
-        <v>976.404000</v>
+        <v>976.404</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.806600</v>
+        <v>-91.806600000000003</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>20982.335400</v>
+        <v>20982.3354</v>
       </c>
       <c r="AU7" s="1">
-        <v>5.828426</v>
+        <v>5.8284260000000003</v>
       </c>
       <c r="AV7" s="1">
-        <v>986.381000</v>
+        <v>986.38099999999997</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.705000</v>
+        <v>-109.705</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>20993.288026</v>
+        <v>20993.288025999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>5.831469</v>
+        <v>5.8314690000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>994.739000</v>
+        <v>994.73900000000003</v>
       </c>
       <c r="BB7" s="1">
-        <v>-125.438000</v>
+        <v>-125.438</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>21003.656395</v>
+        <v>21003.656395000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>5.834349</v>
+        <v>5.8343489999999996</v>
       </c>
       <c r="BF7" s="1">
-        <v>1033.750000</v>
+        <v>1033.75</v>
       </c>
       <c r="BG7" s="1">
-        <v>-198.040000</v>
+        <v>-198.04</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>21014.816412</v>
       </c>
       <c r="BJ7" s="1">
-        <v>5.837449</v>
+        <v>5.8374490000000003</v>
       </c>
       <c r="BK7" s="1">
-        <v>1100.880000</v>
+        <v>1100.8800000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-315.713000</v>
+        <v>-315.71300000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>21025.618254</v>
+        <v>21025.618254000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>5.840450</v>
+        <v>5.8404499999999997</v>
       </c>
       <c r="BP7" s="1">
-        <v>1209.760000</v>
+        <v>1209.76</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-501.387000</v>
+        <v>-501.387</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>21036.466255</v>
+        <v>21036.466254999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>5.843463</v>
+        <v>5.8434629999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1332.300000</v>
+        <v>1332.3</v>
       </c>
       <c r="BV7" s="1">
-        <v>-705.647000</v>
+        <v>-705.64700000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>21047.549392</v>
+        <v>21047.549392000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>5.846541</v>
+        <v>5.8465410000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1469.510000</v>
+        <v>1469.51</v>
       </c>
       <c r="CA7" s="1">
-        <v>-922.853000</v>
+        <v>-922.85299999999995</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>21059.085809</v>
       </c>
       <c r="CD7" s="1">
-        <v>5.849746</v>
+        <v>5.8497459999999997</v>
       </c>
       <c r="CE7" s="1">
-        <v>1830.350000</v>
+        <v>1830.35</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1440.300000</v>
+        <v>-1440.3</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>20888.388132</v>
       </c>
       <c r="B8" s="1">
-        <v>5.802330</v>
+        <v>5.8023300000000004</v>
       </c>
       <c r="C8" s="1">
-        <v>894.976000</v>
+        <v>894.976</v>
       </c>
       <c r="D8" s="1">
-        <v>-199.657000</v>
+        <v>-199.65700000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>20898.741160</v>
+        <v>20898.741160000001</v>
       </c>
       <c r="G8" s="1">
-        <v>5.805206</v>
+        <v>5.8052060000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>912.707000</v>
+        <v>912.70699999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-168.805000</v>
+        <v>-168.80500000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>20909.310872</v>
+        <v>20909.310871999998</v>
       </c>
       <c r="L8" s="1">
-        <v>5.808142</v>
+        <v>5.8081420000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>935.997000</v>
+        <v>935.99699999999996</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.850000</v>
+        <v>-119.85</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>20919.806217</v>
+        <v>20919.806217000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>5.811057</v>
+        <v>5.8110569999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>942.763000</v>
+        <v>942.76300000000003</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.593000</v>
+        <v>-103.593</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>20930.305037</v>
+        <v>20930.305036999998</v>
       </c>
       <c r="V8" s="1">
         <v>5.813974</v>
       </c>
       <c r="W8" s="1">
-        <v>949.227000</v>
+        <v>949.22699999999998</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.553200</v>
+        <v>-88.553200000000004</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>20940.788018</v>
+        <v>20940.788017999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>5.816886</v>
+        <v>5.8168860000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>956.378000</v>
+        <v>956.37800000000004</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.300600</v>
+        <v>-77.300600000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>20951.333658</v>
       </c>
       <c r="AF8" s="1">
-        <v>5.819815</v>
+        <v>5.8198150000000002</v>
       </c>
       <c r="AG8" s="1">
-        <v>961.000000</v>
+        <v>961</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.247600</v>
+        <v>-75.247600000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>20961.710226</v>
+        <v>20961.710225999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>5.822697</v>
+        <v>5.8226969999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>968.238000</v>
+        <v>968.23800000000006</v>
       </c>
       <c r="AM8" s="1">
-        <v>-80.047400</v>
+        <v>-80.047399999999996</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>20972.038421</v>
+        <v>20972.038421000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>5.825566</v>
+        <v>5.8255660000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>976.406000</v>
+        <v>976.40599999999995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.799600</v>
+        <v>-91.799599999999998</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>20983.064054</v>
+        <v>20983.064053999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>5.828629</v>
+        <v>5.8286290000000003</v>
       </c>
       <c r="AV8" s="1">
-        <v>986.349000</v>
+        <v>986.34900000000005</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.697000</v>
+        <v>-109.697</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>20993.451208</v>
+        <v>20993.451207999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>5.831514</v>
+        <v>5.8315140000000003</v>
       </c>
       <c r="BA8" s="1">
-        <v>994.743000</v>
+        <v>994.74300000000005</v>
       </c>
       <c r="BB8" s="1">
-        <v>-125.455000</v>
+        <v>-125.455</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>21004.018970</v>
+        <v>21004.018970000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>5.834450</v>
+        <v>5.8344500000000004</v>
       </c>
       <c r="BF8" s="1">
-        <v>1033.750000</v>
+        <v>1033.75</v>
       </c>
       <c r="BG8" s="1">
-        <v>-198.048000</v>
+        <v>-198.048</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>21015.191852</v>
       </c>
       <c r="BJ8" s="1">
-        <v>5.837553</v>
+        <v>5.8375529999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1100.900000</v>
+        <v>1100.9000000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-315.745000</v>
+        <v>-315.745</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>21026.039854</v>
+        <v>21026.039853999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>5.840567</v>
+        <v>5.8405670000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1209.740000</v>
+        <v>1209.74</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-501.356000</v>
+        <v>-501.35599999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>21037.207774</v>
+        <v>21037.207773999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>5.843669</v>
+        <v>5.8436690000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1332.220000</v>
+        <v>1332.22</v>
       </c>
       <c r="BV8" s="1">
-        <v>-705.654000</v>
+        <v>-705.654</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>21047.671906</v>
       </c>
       <c r="BY8" s="1">
-        <v>5.846576</v>
+        <v>5.8465759999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1469.520000</v>
+        <v>1469.52</v>
       </c>
       <c r="CA8" s="1">
-        <v>-922.868000</v>
+        <v>-922.86800000000005</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>21059.317937</v>
       </c>
       <c r="CD8" s="1">
-        <v>5.849811</v>
+        <v>5.8498109999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1830.320000</v>
+        <v>1830.32</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1440.280000</v>
+        <v>-1440.28</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>20888.734375</v>
       </c>
       <c r="B9" s="1">
-        <v>5.802426</v>
+        <v>5.8024259999999996</v>
       </c>
       <c r="C9" s="1">
-        <v>895.089000</v>
+        <v>895.08900000000006</v>
       </c>
       <c r="D9" s="1">
-        <v>-199.738000</v>
+        <v>-199.738</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>20899.155782</v>
+        <v>20899.155782000002</v>
       </c>
       <c r="G9" s="1">
-        <v>5.805321</v>
+        <v>5.8053210000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>912.487000</v>
+        <v>912.48699999999997</v>
       </c>
       <c r="I9" s="1">
-        <v>-168.676000</v>
+        <v>-168.67599999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>20909.600039</v>
+        <v>20909.600039000001</v>
       </c>
       <c r="L9" s="1">
-        <v>5.808222</v>
+        <v>5.8082219999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>936.234000</v>
+        <v>936.23400000000004</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.725000</v>
+        <v>-119.72499999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>20920.108777</v>
+        <v>20920.108777000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>5.811141</v>
+        <v>5.8111410000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>942.795000</v>
+        <v>942.79499999999996</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.583000</v>
+        <v>-103.583</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>20930.646780</v>
+        <v>20930.646779999999</v>
       </c>
       <c r="V9" s="1">
-        <v>5.814069</v>
+        <v>5.8140689999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>949.271000</v>
+        <v>949.27099999999996</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.569800</v>
+        <v>-88.569800000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>20941.139645</v>
+        <v>20941.139644999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>5.816983</v>
+        <v>5.8169829999999996</v>
       </c>
       <c r="AB9" s="1">
-        <v>956.285000</v>
+        <v>956.28499999999997</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.380300</v>
+        <v>-77.380300000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>20951.677679</v>
       </c>
       <c r="AF9" s="1">
-        <v>5.819910</v>
+        <v>5.8199100000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>960.976000</v>
+        <v>960.976</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.154000</v>
+        <v>-75.153999999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>20962.410081</v>
+        <v>20962.410081000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>5.822892</v>
+        <v>5.8228920000000004</v>
       </c>
       <c r="AL9" s="1">
-        <v>968.249000</v>
+        <v>968.24900000000002</v>
       </c>
       <c r="AM9" s="1">
-        <v>-80.049200</v>
+        <v>-80.049199999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>20972.762115</v>
+        <v>20972.762115000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>5.825767</v>
+        <v>5.8257669999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>976.396000</v>
+        <v>976.39599999999996</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.819300</v>
+        <v>-91.819299999999998</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>20983.454374</v>
+        <v>20983.454374000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>5.828737</v>
+        <v>5.8287370000000003</v>
       </c>
       <c r="AV9" s="1">
-        <v>986.364000</v>
+        <v>986.36400000000003</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.685000</v>
+        <v>-109.685</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>20993.809360</v>
+        <v>20993.809359999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>5.831614</v>
+        <v>5.8316140000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>994.752000</v>
+        <v>994.75199999999995</v>
       </c>
       <c r="BB9" s="1">
-        <v>-125.450000</v>
+        <v>-125.45</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>21004.378742</v>
+        <v>21004.378742000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>5.834550</v>
+        <v>5.8345500000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1033.760000</v>
+        <v>1033.76</v>
       </c>
       <c r="BG9" s="1">
-        <v>-198.048000</v>
+        <v>-198.048</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>21015.871867</v>
+        <v>21015.871867000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>5.837742</v>
+        <v>5.8377420000000004</v>
       </c>
       <c r="BK9" s="1">
-        <v>1100.860000</v>
+        <v>1100.8599999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-315.716000</v>
+        <v>-315.71600000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>21026.737724</v>
+        <v>21026.737723999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>5.840760</v>
+        <v>5.8407600000000004</v>
       </c>
       <c r="BP9" s="1">
-        <v>1209.770000</v>
+        <v>1209.77</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-501.409000</v>
+        <v>-501.40899999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>21037.336736</v>
+        <v>21037.336736000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>5.843705</v>
+        <v>5.8437049999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1332.200000</v>
+        <v>1332.2</v>
       </c>
       <c r="BV9" s="1">
-        <v>-705.611000</v>
+        <v>-705.61099999999999</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>21048.119264</v>
+        <v>21048.119264000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>5.846700</v>
+        <v>5.8467000000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1469.510000</v>
+        <v>1469.51</v>
       </c>
       <c r="CA9" s="1">
-        <v>-922.898000</v>
+        <v>-922.89800000000002</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>21059.834304</v>
       </c>
       <c r="CD9" s="1">
-        <v>5.849954</v>
+        <v>5.8499540000000003</v>
       </c>
       <c r="CE9" s="1">
-        <v>1831.320000</v>
+        <v>1831.32</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1439.700000</v>
+        <v>-1439.7</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>20889.157959</v>
       </c>
       <c r="B10" s="1">
-        <v>5.802544</v>
+        <v>5.8025440000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>894.965000</v>
+        <v>894.96500000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>-199.777000</v>
+        <v>-199.77699999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>20899.454868</v>
+        <v>20899.454868000001</v>
       </c>
       <c r="G10" s="1">
-        <v>5.805404</v>
+        <v>5.8054040000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>912.779000</v>
+        <v>912.779</v>
       </c>
       <c r="I10" s="1">
-        <v>-169.019000</v>
+        <v>-169.01900000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>20909.944295</v>
+        <v>20909.944295000001</v>
       </c>
       <c r="L10" s="1">
-        <v>5.808318</v>
+        <v>5.8083179999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>935.880000</v>
+        <v>935.88</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.706000</v>
+        <v>-119.706</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>20920.454986</v>
+        <v>20920.454986000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>5.811237</v>
+        <v>5.8112370000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>942.743000</v>
+        <v>942.74300000000005</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.584000</v>
+        <v>-103.584</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>20930.990540</v>
+        <v>20930.990539999999</v>
       </c>
       <c r="V10" s="1">
-        <v>5.814164</v>
+        <v>5.8141639999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>949.122000</v>
+        <v>949.12199999999996</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.545200</v>
+        <v>-88.545199999999994</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>20941.487837</v>
+        <v>20941.487837000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>5.817080</v>
+        <v>5.8170799999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>956.294000</v>
+        <v>956.29399999999998</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.337100</v>
+        <v>-77.337100000000007</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>20952.362128</v>
+        <v>20952.362128000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>5.820101</v>
+        <v>5.8201010000000002</v>
       </c>
       <c r="AG10" s="1">
-        <v>961.021000</v>
+        <v>961.02099999999996</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.156700</v>
+        <v>-75.156700000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>20962.755827</v>
+        <v>20962.755827000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>5.822988</v>
+        <v>5.8229879999999996</v>
       </c>
       <c r="AL10" s="1">
-        <v>968.222000</v>
+        <v>968.22199999999998</v>
       </c>
       <c r="AM10" s="1">
-        <v>-80.048700</v>
+        <v>-80.048699999999997</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>20973.118707</v>
+        <v>20973.118707000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>5.825866</v>
+        <v>5.8258660000000004</v>
       </c>
       <c r="AQ10" s="1">
-        <v>976.399000</v>
+        <v>976.399</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.814500</v>
+        <v>-91.814499999999995</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>20983.815958</v>
+        <v>20983.815957999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>5.828838</v>
+        <v>5.8288380000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>986.373000</v>
+        <v>986.37300000000005</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.714000</v>
+        <v>-109.714</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>20994.467512</v>
+        <v>20994.467511999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>5.831797</v>
+        <v>5.8317969999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>994.744000</v>
+        <v>994.74400000000003</v>
       </c>
       <c r="BB10" s="1">
-        <v>-125.426000</v>
+        <v>-125.426</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>21005.037754</v>
+        <v>21005.037754000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>5.834733</v>
+        <v>5.8347329999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1033.750000</v>
+        <v>1033.75</v>
       </c>
       <c r="BG10" s="1">
-        <v>-198.034000</v>
+        <v>-198.03399999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>21016.315786</v>
+        <v>21016.315785999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>5.837865</v>
+        <v>5.8378649999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1100.910000</v>
+        <v>1100.9100000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-315.738000</v>
+        <v>-315.738</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>21026.899420</v>
+        <v>21026.899420000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>5.840805</v>
+        <v>5.8408049999999996</v>
       </c>
       <c r="BP10" s="1">
-        <v>1209.770000</v>
+        <v>1209.77</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-501.356000</v>
+        <v>-501.35599999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>21037.750397</v>
       </c>
       <c r="BT10" s="1">
-        <v>5.843820</v>
+        <v>5.84382</v>
       </c>
       <c r="BU10" s="1">
-        <v>1332.150000</v>
+        <v>1332.15</v>
       </c>
       <c r="BV10" s="1">
-        <v>-705.598000</v>
+        <v>-705.59799999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>21048.550289</v>
+        <v>21048.550288999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>5.846820</v>
+        <v>5.8468200000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1469.570000</v>
+        <v>1469.57</v>
       </c>
       <c r="CA10" s="1">
-        <v>-922.782000</v>
+        <v>-922.78200000000004</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>21060.359536</v>
       </c>
       <c r="CD10" s="1">
-        <v>5.850100</v>
+        <v>5.8501000000000003</v>
       </c>
       <c r="CE10" s="1">
-        <v>1830.850000</v>
+        <v>1830.85</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1440.470000</v>
+        <v>-1440.47</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>20889.439039</v>
+        <v>20889.439039000001</v>
       </c>
       <c r="B11" s="1">
-        <v>5.802622</v>
+        <v>5.8026220000000004</v>
       </c>
       <c r="C11" s="1">
-        <v>895.020000</v>
+        <v>895.02</v>
       </c>
       <c r="D11" s="1">
-        <v>-199.753000</v>
+        <v>-199.75299999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>20899.799092</v>
+        <v>20899.799092000001</v>
       </c>
       <c r="G11" s="1">
-        <v>5.805500</v>
+        <v>5.8055000000000003</v>
       </c>
       <c r="H11" s="1">
-        <v>912.386000</v>
+        <v>912.38599999999997</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.857000</v>
+        <v>-168.857</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>20910.293942</v>
       </c>
       <c r="L11" s="1">
-        <v>5.808415</v>
+        <v>5.8084150000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>936.048000</v>
+        <v>936.048</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.653000</v>
+        <v>-119.65300000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>20920.804664</v>
+        <v>20920.804663999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>5.811335</v>
+        <v>5.8113349999999997</v>
       </c>
       <c r="R11" s="1">
-        <v>942.762000</v>
+        <v>942.76199999999994</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.549000</v>
+        <v>-103.54900000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>20931.678459</v>
+        <v>20931.678458999999</v>
       </c>
       <c r="V11" s="1">
-        <v>5.814355</v>
+        <v>5.8143549999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>949.025000</v>
+        <v>949.02499999999998</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.734700</v>
+        <v>-88.734700000000004</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>20942.187196</v>
+        <v>20942.187195999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>5.817274</v>
+        <v>5.8172740000000003</v>
       </c>
       <c r="AB11" s="1">
-        <v>956.266000</v>
+        <v>956.26599999999996</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.434500</v>
+        <v>-77.4345</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>20952.704398</v>
+        <v>20952.704398000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>5.820196</v>
+        <v>5.8201960000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>960.989000</v>
+        <v>960.98900000000003</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.187100</v>
+        <v>-75.187100000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>20963.106465</v>
+        <v>20963.106465000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>5.823085</v>
+        <v>5.8230849999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>968.241000</v>
+        <v>968.24099999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-80.035900</v>
+        <v>-80.035899999999998</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>20973.482770</v>
+        <v>20973.482769999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>5.825967</v>
+        <v>5.8259670000000003</v>
       </c>
       <c r="AQ11" s="1">
-        <v>976.401000</v>
+        <v>976.40099999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.810100</v>
+        <v>-91.810100000000006</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>20984.482548</v>
       </c>
       <c r="AU11" s="1">
-        <v>5.829023</v>
+        <v>5.8290230000000003</v>
       </c>
       <c r="AV11" s="1">
-        <v>986.369000</v>
+        <v>986.36900000000003</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.679000</v>
+        <v>-109.679</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>20994.910470</v>
+        <v>20994.910469999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>5.831920</v>
+        <v>5.8319200000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>994.741000</v>
+        <v>994.74099999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-125.452000</v>
+        <v>-125.452</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>21005.496058</v>
+        <v>21005.496058000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>5.834860</v>
+        <v>5.8348599999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1033.730000</v>
+        <v>1033.73</v>
       </c>
       <c r="BG11" s="1">
-        <v>-198.039000</v>
+        <v>-198.03899999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>21016.692251</v>
       </c>
       <c r="BJ11" s="1">
-        <v>5.837970</v>
+        <v>5.8379700000000003</v>
       </c>
       <c r="BK11" s="1">
-        <v>1100.860000</v>
+        <v>1100.8599999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-315.767000</v>
+        <v>-315.767</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>21027.282337</v>
+        <v>21027.282337000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>5.840912</v>
+        <v>5.8409120000000003</v>
       </c>
       <c r="BP11" s="1">
-        <v>1209.750000</v>
+        <v>1209.75</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-501.389000</v>
+        <v>-501.38900000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>21038.178477</v>
+        <v>21038.178477000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>5.843938</v>
+        <v>5.8439379999999996</v>
       </c>
       <c r="BU11" s="1">
-        <v>1332.030000</v>
+        <v>1332.03</v>
       </c>
       <c r="BV11" s="1">
-        <v>-705.559000</v>
+        <v>-705.55899999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>21048.971918</v>
+        <v>21048.971917999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>5.846937</v>
+        <v>5.8469369999999996</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1469.480000</v>
+        <v>1469.48</v>
       </c>
       <c r="CA11" s="1">
-        <v>-922.771000</v>
+        <v>-922.77099999999996</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>21060.907165</v>
+        <v>21060.907165000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>5.850252</v>
+        <v>5.8502520000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>1830.050000</v>
+        <v>1830.05</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1440.130000</v>
+        <v>-1440.13</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>20889.966401</v>
+        <v>20889.966401000001</v>
       </c>
       <c r="B12" s="1">
-        <v>5.802768</v>
+        <v>5.8027680000000004</v>
       </c>
       <c r="C12" s="1">
-        <v>894.931000</v>
+        <v>894.93100000000004</v>
       </c>
       <c r="D12" s="1">
-        <v>-199.546000</v>
+        <v>-199.54599999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>20900.142857</v>
+        <v>20900.142856999999</v>
       </c>
       <c r="G12" s="1">
-        <v>5.805595</v>
+        <v>5.8055950000000003</v>
       </c>
       <c r="H12" s="1">
-        <v>913.000000</v>
+        <v>913</v>
       </c>
       <c r="I12" s="1">
-        <v>-168.717000</v>
+        <v>-168.71700000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>20910.987349</v>
+        <v>20910.987348999999</v>
       </c>
       <c r="L12" s="1">
-        <v>5.808608</v>
+        <v>5.8086080000000004</v>
       </c>
       <c r="M12" s="1">
-        <v>935.881000</v>
+        <v>935.88099999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.820000</v>
+        <v>-119.82</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>20921.500551</v>
+        <v>20921.500551000001</v>
       </c>
       <c r="Q12" s="1">
         <v>5.811528</v>
       </c>
       <c r="R12" s="1">
-        <v>942.768000</v>
+        <v>942.76800000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.544000</v>
+        <v>-103.544</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>20932.022185</v>
+        <v>20932.022185000002</v>
       </c>
       <c r="V12" s="1">
         <v>5.814451</v>
       </c>
       <c r="W12" s="1">
-        <v>949.139000</v>
+        <v>949.13900000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.849500</v>
+        <v>-88.849500000000006</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>20942.533404</v>
+        <v>20942.533404000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>5.817370</v>
+        <v>5.8173700000000004</v>
       </c>
       <c r="AB12" s="1">
-        <v>956.207000</v>
+        <v>956.20699999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.286600</v>
+        <v>-77.286600000000007</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>20953.053053</v>
       </c>
       <c r="AF12" s="1">
-        <v>5.820293</v>
+        <v>5.8202930000000004</v>
       </c>
       <c r="AG12" s="1">
-        <v>960.971000</v>
+        <v>960.971</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.176500</v>
+        <v>-75.176500000000004</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>20963.750767</v>
+        <v>20963.750767000001</v>
       </c>
       <c r="AK12" s="1">
         <v>5.823264</v>
       </c>
       <c r="AL12" s="1">
-        <v>968.237000</v>
+        <v>968.23699999999997</v>
       </c>
       <c r="AM12" s="1">
-        <v>-80.037400</v>
+        <v>-80.037400000000005</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>20974.143474</v>
       </c>
       <c r="AP12" s="1">
-        <v>5.826151</v>
+        <v>5.8261510000000003</v>
       </c>
       <c r="AQ12" s="1">
-        <v>976.396000</v>
+        <v>976.39599999999996</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.800200</v>
+        <v>-91.800200000000004</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>20984.945315</v>
+        <v>20984.945315000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>5.829151</v>
+        <v>5.8291510000000004</v>
       </c>
       <c r="AV12" s="1">
-        <v>986.385000</v>
+        <v>986.38499999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.704000</v>
+        <v>-109.70399999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>20995.268087</v>
       </c>
       <c r="AZ12" s="1">
-        <v>5.832019</v>
+        <v>5.8320189999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>994.747000</v>
+        <v>994.74699999999996</v>
       </c>
       <c r="BB12" s="1">
-        <v>-125.435000</v>
+        <v>-125.435</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>21005.859128</v>
       </c>
       <c r="BE12" s="1">
-        <v>5.834961</v>
+        <v>5.8349609999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1033.760000</v>
+        <v>1033.76</v>
       </c>
       <c r="BG12" s="1">
-        <v>-198.023000</v>
+        <v>-198.023</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>21017.065737</v>
+        <v>21017.065737000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>5.838074</v>
+        <v>5.8380739999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1100.880000</v>
+        <v>1100.8800000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-315.730000</v>
+        <v>-315.73</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>21027.856730</v>
+        <v>21027.85673</v>
       </c>
       <c r="BO12" s="1">
-        <v>5.841071</v>
+        <v>5.8410710000000003</v>
       </c>
       <c r="BP12" s="1">
-        <v>1209.760000</v>
+        <v>1209.76</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-501.386000</v>
+        <v>-501.38600000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>21038.598557</v>
+        <v>21038.598557000001</v>
       </c>
       <c r="BT12" s="1">
         <v>5.844055</v>
       </c>
       <c r="BU12" s="1">
-        <v>1331.990000</v>
+        <v>1331.99</v>
       </c>
       <c r="BV12" s="1">
-        <v>-705.435000</v>
+        <v>-705.43499999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>21049.395471</v>
@@ -3276,694 +3692,694 @@
         <v>5.847054</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1469.550000</v>
+        <v>1469.55</v>
       </c>
       <c r="CA12" s="1">
-        <v>-922.895000</v>
+        <v>-922.89499999999998</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>21061.436351</v>
       </c>
       <c r="CD12" s="1">
-        <v>5.850399</v>
+        <v>5.8503990000000003</v>
       </c>
       <c r="CE12" s="1">
-        <v>1831.210000</v>
+        <v>1831.21</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1439.730000</v>
+        <v>-1439.73</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>20890.445040</v>
+        <v>20890.445039999999</v>
       </c>
       <c r="B13" s="1">
-        <v>5.802901</v>
+        <v>5.8029010000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>895.164000</v>
+        <v>895.16399999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-199.618000</v>
+        <v>-199.61799999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>20900.833775</v>
+        <v>20900.833774999999</v>
       </c>
       <c r="G13" s="1">
-        <v>5.805787</v>
+        <v>5.8057869999999996</v>
       </c>
       <c r="H13" s="1">
-        <v>912.565000</v>
+        <v>912.56500000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-168.927000</v>
+        <v>-168.92699999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>20911.330612</v>
+        <v>20911.330612000002</v>
       </c>
       <c r="L13" s="1">
-        <v>5.808703</v>
+        <v>5.8087030000000004</v>
       </c>
       <c r="M13" s="1">
-        <v>936.028000</v>
+        <v>936.02800000000002</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.785000</v>
+        <v>-119.785</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>20921.850760</v>
+        <v>20921.850760000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>5.811625</v>
+        <v>5.8116250000000003</v>
       </c>
       <c r="R13" s="1">
-        <v>942.834000</v>
+        <v>942.83399999999995</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.566000</v>
+        <v>-103.566</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>20932.366441</v>
+        <v>20932.366440999998</v>
       </c>
       <c r="V13" s="1">
         <v>5.814546</v>
       </c>
       <c r="W13" s="1">
-        <v>949.034000</v>
+        <v>949.03399999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.904100</v>
+        <v>-88.9041</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>20943.177739</v>
+        <v>20943.177738999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>5.817549</v>
+        <v>5.8175489999999996</v>
       </c>
       <c r="AB13" s="1">
-        <v>956.240000</v>
+        <v>956.24</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.265100</v>
+        <v>-77.265100000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>20953.700094</v>
       </c>
       <c r="AF13" s="1">
-        <v>5.820472</v>
+        <v>5.8204719999999996</v>
       </c>
       <c r="AG13" s="1">
-        <v>960.996000</v>
+        <v>960.99599999999998</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.212800</v>
+        <v>-75.212800000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>20964.148559</v>
+        <v>20964.148559000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>5.823375</v>
+        <v>5.8233750000000004</v>
       </c>
       <c r="AL13" s="1">
-        <v>968.257000</v>
+        <v>968.25699999999995</v>
       </c>
       <c r="AM13" s="1">
-        <v>-80.018200</v>
+        <v>-80.018199999999993</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>20974.593313</v>
+        <v>20974.593313000001</v>
       </c>
       <c r="AP13" s="1">
         <v>5.826276</v>
       </c>
       <c r="AQ13" s="1">
-        <v>976.401000</v>
+        <v>976.40099999999995</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.791000</v>
+        <v>-91.790999999999997</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>20985.309381</v>
+        <v>20985.309380999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>5.829253</v>
+        <v>5.8292529999999996</v>
       </c>
       <c r="AV13" s="1">
-        <v>986.380000</v>
+        <v>986.38</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.691000</v>
+        <v>-109.691</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>20995.629710</v>
+        <v>20995.629710000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>5.832119</v>
+        <v>5.8321189999999996</v>
       </c>
       <c r="BA13" s="1">
-        <v>994.748000</v>
+        <v>994.74800000000005</v>
       </c>
       <c r="BB13" s="1">
-        <v>-125.446000</v>
+        <v>-125.446</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>21006.219719</v>
+        <v>21006.219719000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>5.835061</v>
+        <v>5.8350609999999996</v>
       </c>
       <c r="BF13" s="1">
-        <v>1033.750000</v>
+        <v>1033.75</v>
       </c>
       <c r="BG13" s="1">
-        <v>-198.024000</v>
+        <v>-198.024</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>21017.491304</v>
+        <v>21017.491303999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>5.838192</v>
+        <v>5.8381920000000003</v>
       </c>
       <c r="BK13" s="1">
-        <v>1100.880000</v>
+        <v>1100.8800000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-315.729000</v>
+        <v>-315.72899999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>21028.099243</v>
+        <v>21028.099243000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>5.841139</v>
+        <v>5.8411390000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1209.790000</v>
+        <v>1209.79</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-501.373000</v>
+        <v>-501.37299999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>21039.006763</v>
+        <v>21039.006763000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>5.844169</v>
+        <v>5.8441689999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1331.950000</v>
+        <v>1331.95</v>
       </c>
       <c r="BV13" s="1">
-        <v>-705.394000</v>
+        <v>-705.39400000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>21049.819550</v>
+        <v>21049.81955</v>
       </c>
       <c r="BY13" s="1">
-        <v>5.847172</v>
+        <v>5.8471719999999996</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1469.650000</v>
+        <v>1469.65</v>
       </c>
       <c r="CA13" s="1">
-        <v>-922.862000</v>
+        <v>-922.86199999999997</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>21061.954669</v>
+        <v>21061.954668999999</v>
       </c>
       <c r="CD13" s="1">
         <v>5.850543</v>
       </c>
       <c r="CE13" s="1">
-        <v>1830.830000</v>
+        <v>1830.83</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1438.860000</v>
+        <v>-1438.86</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>20890.803648</v>
+        <v>20890.803648000001</v>
       </c>
       <c r="B14" s="1">
-        <v>5.803001</v>
+        <v>5.8030010000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>895.012000</v>
+        <v>895.01199999999994</v>
       </c>
       <c r="D14" s="1">
-        <v>-199.593000</v>
+        <v>-199.59299999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>20901.175986</v>
+        <v>20901.175985999998</v>
       </c>
       <c r="G14" s="1">
-        <v>5.805882</v>
+        <v>5.8058820000000004</v>
       </c>
       <c r="H14" s="1">
-        <v>912.801000</v>
+        <v>912.80100000000004</v>
       </c>
       <c r="I14" s="1">
-        <v>-168.604000</v>
+        <v>-168.60400000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>20911.678772</v>
+        <v>20911.678771999999</v>
       </c>
       <c r="L14" s="1">
-        <v>5.808800</v>
+        <v>5.8087999999999997</v>
       </c>
       <c r="M14" s="1">
-        <v>935.980000</v>
+        <v>935.98</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.942000</v>
+        <v>-119.94199999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>20922.199943</v>
       </c>
       <c r="Q14" s="1">
-        <v>5.811722</v>
+        <v>5.8117219999999996</v>
       </c>
       <c r="R14" s="1">
-        <v>942.801000</v>
+        <v>942.80100000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.613000</v>
+        <v>-103.613</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>20933.014681</v>
+        <v>20933.014681000001</v>
       </c>
       <c r="V14" s="1">
-        <v>5.814726</v>
+        <v>5.8147260000000003</v>
       </c>
       <c r="W14" s="1">
-        <v>949.052000</v>
+        <v>949.05200000000002</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.788200</v>
+        <v>-88.788200000000003</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>20943.579466</v>
+        <v>20943.579465999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>5.817661</v>
+        <v>5.8176610000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>956.260000</v>
+        <v>956.26</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.324900</v>
+        <v>-77.3249</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>20954.087212</v>
+        <v>20954.087211999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>5.820580</v>
+        <v>5.8205799999999996</v>
       </c>
       <c r="AG14" s="1">
-        <v>960.946000</v>
+        <v>960.94600000000003</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.133200</v>
+        <v>-75.133200000000002</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>20964.499728</v>
+        <v>20964.499727999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>5.823472</v>
+        <v>5.8234719999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>968.270000</v>
+        <v>968.27</v>
       </c>
       <c r="AM14" s="1">
-        <v>-80.050500</v>
+        <v>-80.0505</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>20974.956881</v>
+        <v>20974.956880999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>5.826377</v>
+        <v>5.8263769999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>976.431000</v>
+        <v>976.43100000000004</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.805100</v>
+        <v>-91.805099999999996</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>20985.675426</v>
+        <v>20985.675426000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>5.829354</v>
+        <v>5.8293540000000004</v>
       </c>
       <c r="AV14" s="1">
-        <v>986.400000</v>
+        <v>986.4</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.695000</v>
+        <v>-109.69499999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>20996.053760</v>
+        <v>20996.053759999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>5.832237</v>
+        <v>5.8322370000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>994.737000</v>
+        <v>994.73699999999997</v>
       </c>
       <c r="BB14" s="1">
-        <v>-125.414000</v>
+        <v>-125.414</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>21006.650247</v>
+        <v>21006.650247000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>5.835181</v>
+        <v>5.8351810000000004</v>
       </c>
       <c r="BF14" s="1">
-        <v>1033.750000</v>
+        <v>1033.75</v>
       </c>
       <c r="BG14" s="1">
-        <v>-198.026000</v>
+        <v>-198.02600000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>21017.837060</v>
+        <v>21017.837060000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>5.838288</v>
+        <v>5.8382880000000004</v>
       </c>
       <c r="BK14" s="1">
-        <v>1100.870000</v>
+        <v>1100.8699999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-315.760000</v>
+        <v>-315.76</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>21028.497530</v>
+        <v>21028.497530000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>5.841249</v>
+        <v>5.8412490000000004</v>
       </c>
       <c r="BP14" s="1">
-        <v>1209.780000</v>
+        <v>1209.78</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-501.376000</v>
+        <v>-501.37599999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>21039.424396</v>
+        <v>21039.424395999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>5.844285</v>
+        <v>5.8442850000000002</v>
       </c>
       <c r="BU14" s="1">
-        <v>1331.990000</v>
+        <v>1331.99</v>
       </c>
       <c r="BV14" s="1">
-        <v>-705.320000</v>
+        <v>-705.32</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>21050.234733</v>
+        <v>21050.234733000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>5.847287</v>
+        <v>5.8472869999999997</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1469.490000</v>
+        <v>1469.49</v>
       </c>
       <c r="CA14" s="1">
-        <v>-922.911000</v>
+        <v>-922.91099999999994</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>21062.472989</v>
+        <v>21062.472989000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>5.850687</v>
+        <v>5.8506869999999997</v>
       </c>
       <c r="CE14" s="1">
-        <v>1829.660000</v>
+        <v>1829.66</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1439.010000</v>
+        <v>-1439.01</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>20891.145391</v>
+        <v>20891.145390999998</v>
       </c>
       <c r="B15" s="1">
         <v>5.803096</v>
       </c>
       <c r="C15" s="1">
-        <v>895.043000</v>
+        <v>895.04300000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-199.695000</v>
+        <v>-199.69499999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>20901.522226</v>
+        <v>20901.522226000001</v>
       </c>
       <c r="G15" s="1">
-        <v>5.805978</v>
+        <v>5.8059779999999996</v>
       </c>
       <c r="H15" s="1">
-        <v>912.992000</v>
+        <v>912.99199999999996</v>
       </c>
       <c r="I15" s="1">
-        <v>-169.462000</v>
+        <v>-169.46199999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>20912.325061</v>
       </c>
       <c r="L15" s="1">
-        <v>5.808979</v>
+        <v>5.8089789999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>935.980000</v>
+        <v>935.98</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.861000</v>
+        <v>-119.861</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>20922.867029</v>
+        <v>20922.867029000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>5.811908</v>
+        <v>5.8119079999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>942.779000</v>
+        <v>942.779</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.599000</v>
+        <v>-103.599</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>20933.396142</v>
+        <v>20933.396142000001</v>
       </c>
       <c r="V15" s="1">
         <v>5.814832</v>
       </c>
       <c r="W15" s="1">
-        <v>949.128000</v>
+        <v>949.12800000000004</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.799800</v>
+        <v>-88.799800000000005</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>20943.925673</v>
+        <v>20943.925673000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>5.817757</v>
+        <v>5.8177570000000003</v>
       </c>
       <c r="AB15" s="1">
-        <v>956.348000</v>
+        <v>956.34799999999996</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.311000</v>
+        <v>-77.311000000000007</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>20954.429948</v>
+        <v>20954.429948000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>5.820675</v>
+        <v>5.8206749999999996</v>
       </c>
       <c r="AG15" s="1">
-        <v>960.990000</v>
+        <v>960.99</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.103100</v>
+        <v>-75.103099999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>20964.846927</v>
+        <v>20964.846926999999</v>
       </c>
       <c r="AK15" s="1">
         <v>5.823569</v>
       </c>
       <c r="AL15" s="1">
-        <v>968.240000</v>
+        <v>968.24</v>
       </c>
       <c r="AM15" s="1">
-        <v>-80.049700</v>
+        <v>-80.049700000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>20975.313008</v>
+        <v>20975.313008000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>5.826476</v>
+        <v>5.8264760000000004</v>
       </c>
       <c r="AQ15" s="1">
-        <v>976.417000</v>
+        <v>976.41700000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.795300</v>
+        <v>-91.795299999999997</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>20986.094566</v>
       </c>
       <c r="AU15" s="1">
-        <v>5.829471</v>
+        <v>5.8294709999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>986.379000</v>
+        <v>986.37900000000002</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.696000</v>
+        <v>-109.696</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>20996.347877</v>
@@ -3972,814 +4388,814 @@
         <v>5.832319</v>
       </c>
       <c r="BA15" s="1">
-        <v>994.749000</v>
+        <v>994.74900000000002</v>
       </c>
       <c r="BB15" s="1">
-        <v>-125.442000</v>
+        <v>-125.44199999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>21006.943383</v>
+        <v>21006.943383000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>5.835262</v>
+        <v>5.8352620000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1033.740000</v>
+        <v>1033.74</v>
       </c>
       <c r="BG15" s="1">
-        <v>-198.029000</v>
+        <v>-198.029</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>21018.212984</v>
+        <v>21018.212984000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>5.838392</v>
+        <v>5.8383919999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1100.850000</v>
+        <v>1100.8499999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-315.701000</v>
+        <v>-315.70100000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>21028.919625</v>
+        <v>21028.919624999999</v>
       </c>
       <c r="BO15" s="1">
         <v>5.841367</v>
       </c>
       <c r="BP15" s="1">
-        <v>1209.750000</v>
+        <v>1209.75</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-501.374000</v>
+        <v>-501.37400000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>21039.838586</v>
+        <v>21039.838586000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>5.844400</v>
+        <v>5.8444000000000003</v>
       </c>
       <c r="BU15" s="1">
-        <v>1332.050000</v>
+        <v>1332.05</v>
       </c>
       <c r="BV15" s="1">
-        <v>-705.250000</v>
+        <v>-705.25</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>21050.688542</v>
       </c>
       <c r="BY15" s="1">
-        <v>5.847413</v>
+        <v>5.8474130000000004</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1469.520000</v>
+        <v>1469.52</v>
       </c>
       <c r="CA15" s="1">
-        <v>-922.844000</v>
+        <v>-922.84400000000005</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>21062.990813</v>
       </c>
       <c r="CD15" s="1">
-        <v>5.850831</v>
+        <v>5.8508310000000003</v>
       </c>
       <c r="CE15" s="1">
-        <v>1830.070000</v>
+        <v>1830.07</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1438.700000</v>
+        <v>-1438.7</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>20891.789696</v>
       </c>
       <c r="B16" s="1">
-        <v>5.803275</v>
+        <v>5.8032750000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>895.047000</v>
+        <v>895.04700000000003</v>
       </c>
       <c r="D16" s="1">
-        <v>-199.696000</v>
+        <v>-199.696</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>20902.172481</v>
+        <v>20902.172481000001</v>
       </c>
       <c r="G16" s="1">
-        <v>5.806159</v>
+        <v>5.8061590000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>912.731000</v>
+        <v>912.73099999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-168.777000</v>
+        <v>-168.77699999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>20912.712961</v>
+        <v>20912.712961000001</v>
       </c>
       <c r="L16" s="1">
-        <v>5.809087</v>
+        <v>5.8090869999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>935.968000</v>
+        <v>935.96799999999996</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.879000</v>
+        <v>-119.879</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>20923.236053</v>
+        <v>20923.236053000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>5.812010</v>
+        <v>5.8120099999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>942.739000</v>
+        <v>942.73900000000003</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.544000</v>
+        <v>-103.544</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>20933.739831</v>
+        <v>20933.739830999999</v>
       </c>
       <c r="V16" s="1">
-        <v>5.814928</v>
+        <v>5.8149280000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>949.071000</v>
+        <v>949.07100000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.732100</v>
+        <v>-88.732100000000003</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>20944.273898</v>
+        <v>20944.273897999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>5.817854</v>
+        <v>5.8178539999999996</v>
       </c>
       <c r="AB16" s="1">
-        <v>956.324000</v>
+        <v>956.32399999999996</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.266000</v>
+        <v>-77.266000000000005</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>20954.778141</v>
+        <v>20954.778140999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>5.820772</v>
+        <v>5.8207719999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>960.971000</v>
+        <v>960.971</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.121100</v>
+        <v>-75.121099999999998</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>20965.272029</v>
       </c>
       <c r="AK16" s="1">
-        <v>5.823687</v>
+        <v>5.8236869999999996</v>
       </c>
       <c r="AL16" s="1">
-        <v>968.246000</v>
+        <v>968.24599999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-80.058300</v>
+        <v>-80.058300000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>20975.825413</v>
+        <v>20975.825412999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>5.826618</v>
+        <v>5.8266179999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>976.420000</v>
+        <v>976.42</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.815400</v>
+        <v>-91.815399999999997</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>20986.403586</v>
       </c>
       <c r="AU16" s="1">
-        <v>5.829557</v>
+        <v>5.8295570000000003</v>
       </c>
       <c r="AV16" s="1">
-        <v>986.387000</v>
+        <v>986.38699999999994</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.717000</v>
+        <v>-109.717</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>20996.707972</v>
       </c>
       <c r="AZ16" s="1">
-        <v>5.832419</v>
+        <v>5.8324189999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>994.761000</v>
+        <v>994.76099999999997</v>
       </c>
       <c r="BB16" s="1">
-        <v>-125.430000</v>
+        <v>-125.43</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>21007.302983</v>
+        <v>21007.302983000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>5.835362</v>
+        <v>5.8353619999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1033.740000</v>
+        <v>1033.74</v>
       </c>
       <c r="BG16" s="1">
-        <v>-198.031000</v>
+        <v>-198.03100000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>21018.587997</v>
+        <v>21018.587996999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>5.838497</v>
+        <v>5.8384970000000003</v>
       </c>
       <c r="BK16" s="1">
-        <v>1100.880000</v>
+        <v>1100.8800000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-315.749000</v>
+        <v>-315.74900000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>21029.335273</v>
+        <v>21029.335273000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>5.841482</v>
+        <v>5.8414820000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1209.740000</v>
+        <v>1209.74</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-501.394000</v>
+        <v>-501.39400000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>21040.273088</v>
+        <v>21040.273088000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>5.844520</v>
+        <v>5.8445200000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1332.030000</v>
+        <v>1332.03</v>
       </c>
       <c r="BV16" s="1">
-        <v>-705.169000</v>
+        <v>-705.16899999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>21051.138909</v>
+        <v>21051.138909000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>5.847539</v>
+        <v>5.8475390000000003</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1469.530000</v>
+        <v>1469.53</v>
       </c>
       <c r="CA16" s="1">
-        <v>-922.843000</v>
+        <v>-922.84299999999996</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>21063.538923</v>
       </c>
       <c r="CD16" s="1">
-        <v>5.850983</v>
+        <v>5.8509830000000003</v>
       </c>
       <c r="CE16" s="1">
-        <v>1831.020000</v>
+        <v>1831.02</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1438.930000</v>
+        <v>-1438.93</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>20892.169134</v>
       </c>
       <c r="B17" s="1">
-        <v>5.803380</v>
+        <v>5.8033799999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>894.958000</v>
+        <v>894.95799999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>-199.636000</v>
+        <v>-199.636</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>20902.555360</v>
+        <v>20902.555359999998</v>
       </c>
       <c r="G17" s="1">
-        <v>5.806265</v>
+        <v>5.8062649999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>912.737000</v>
+        <v>912.73699999999997</v>
       </c>
       <c r="I17" s="1">
-        <v>-168.904000</v>
+        <v>-168.904</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>20913.061618</v>
       </c>
       <c r="L17" s="1">
-        <v>5.809184</v>
+        <v>5.8091840000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>936.064000</v>
+        <v>936.06399999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.982000</v>
+        <v>-119.982</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>20923.592677</v>
+        <v>20923.592677000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>5.812109</v>
+        <v>5.8121090000000004</v>
       </c>
       <c r="R17" s="1">
-        <v>942.783000</v>
+        <v>942.78300000000002</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.562000</v>
+        <v>-103.562</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>20934.089051</v>
+        <v>20934.089050999999</v>
       </c>
       <c r="V17" s="1">
-        <v>5.815025</v>
+        <v>5.8150250000000003</v>
       </c>
       <c r="W17" s="1">
-        <v>949.110000</v>
+        <v>949.11</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.795300</v>
+        <v>-88.795299999999997</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>20944.691000</v>
+        <v>20944.690999999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>5.817970</v>
+        <v>5.8179699999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>956.309000</v>
+        <v>956.30899999999997</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.371200</v>
+        <v>-77.371200000000002</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>20955.203707</v>
+        <v>20955.203707000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>5.820890</v>
+        <v>5.8208900000000003</v>
       </c>
       <c r="AG17" s="1">
-        <v>960.956000</v>
+        <v>960.95600000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.222600</v>
+        <v>-75.2226</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>20965.549757</v>
+        <v>20965.549757000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>5.823764</v>
+        <v>5.8237639999999997</v>
       </c>
       <c r="AL17" s="1">
-        <v>968.244000</v>
+        <v>968.24400000000003</v>
       </c>
       <c r="AM17" s="1">
-        <v>-80.037100</v>
+        <v>-80.037099999999995</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>20976.034192</v>
+        <v>20976.034191999999</v>
       </c>
       <c r="AP17" s="1">
         <v>5.826676</v>
       </c>
       <c r="AQ17" s="1">
-        <v>976.414000</v>
+        <v>976.41399999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.825700</v>
+        <v>-91.825699999999998</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>20986.768642</v>
+        <v>20986.768641999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>5.829658</v>
+        <v>5.8296580000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>986.389000</v>
+        <v>986.38900000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.690000</v>
+        <v>-109.69</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>20997.065555</v>
+        <v>20997.065555000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>5.832518</v>
+        <v>5.8325180000000003</v>
       </c>
       <c r="BA17" s="1">
-        <v>994.738000</v>
+        <v>994.73800000000006</v>
       </c>
       <c r="BB17" s="1">
-        <v>-125.442000</v>
+        <v>-125.44199999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>21007.664069</v>
+        <v>21007.664068999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>5.835462</v>
+        <v>5.8354619999999997</v>
       </c>
       <c r="BF17" s="1">
-        <v>1033.750000</v>
+        <v>1033.75</v>
       </c>
       <c r="BG17" s="1">
-        <v>-198.037000</v>
+        <v>-198.03700000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>21019.337415</v>
+        <v>21019.337415000002</v>
       </c>
       <c r="BJ17" s="1">
         <v>5.838705</v>
       </c>
       <c r="BK17" s="1">
-        <v>1100.870000</v>
+        <v>1100.8699999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-315.724000</v>
+        <v>-315.72399999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>21029.736563</v>
+        <v>21029.736562999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>5.841593</v>
+        <v>5.8415929999999996</v>
       </c>
       <c r="BP17" s="1">
-        <v>1209.780000</v>
+        <v>1209.78</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-501.364000</v>
+        <v>-501.36399999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>21040.704570</v>
+        <v>21040.704570000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>5.844640</v>
+        <v>5.8446400000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1331.990000</v>
+        <v>1331.99</v>
       </c>
       <c r="BV17" s="1">
-        <v>-705.156000</v>
+        <v>-705.15599999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>21051.596252</v>
+        <v>21051.596251999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>5.847666</v>
+        <v>5.8476660000000003</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1469.440000</v>
+        <v>1469.44</v>
       </c>
       <c r="CA17" s="1">
-        <v>-922.795000</v>
+        <v>-922.79499999999996</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>21064.376173</v>
+        <v>21064.376173000001</v>
       </c>
       <c r="CD17" s="1">
         <v>5.851216</v>
       </c>
       <c r="CE17" s="1">
-        <v>1829.870000</v>
+        <v>1829.87</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1438.810000</v>
+        <v>-1438.81</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>20892.507437</v>
       </c>
       <c r="B18" s="1">
-        <v>5.803474</v>
+        <v>5.8034739999999996</v>
       </c>
       <c r="C18" s="1">
-        <v>894.943000</v>
+        <v>894.94299999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-199.756000</v>
+        <v>-199.756</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>20902.898096</v>
+        <v>20902.898096000001</v>
       </c>
       <c r="G18" s="1">
-        <v>5.806361</v>
+        <v>5.8063609999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>913.054000</v>
+        <v>913.05399999999997</v>
       </c>
       <c r="I18" s="1">
-        <v>-168.662000</v>
+        <v>-168.66200000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>20913.407826</v>
+        <v>20913.407825999999</v>
       </c>
       <c r="L18" s="1">
-        <v>5.809280</v>
+        <v>5.8092800000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>935.958000</v>
+        <v>935.95799999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.101000</v>
+        <v>-120.101</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>20923.940902</v>
+        <v>20923.940901999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>5.812206</v>
+        <v>5.8122059999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>942.793000</v>
+        <v>942.79300000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.578000</v>
+        <v>-103.578</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>20934.512598</v>
+        <v>20934.512598000001</v>
       </c>
       <c r="V18" s="1">
-        <v>5.815142</v>
+        <v>5.8151419999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>949.096000</v>
+        <v>949.096</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.830900</v>
+        <v>-88.8309</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>20944.973226</v>
+        <v>20944.973225999998</v>
       </c>
       <c r="AA18" s="1">
-        <v>5.818048</v>
+        <v>5.8180480000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>956.241000</v>
+        <v>956.24099999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.288000</v>
+        <v>-77.287999999999997</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>20955.477499</v>
+        <v>20955.477499000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>5.820966</v>
+        <v>5.8209660000000003</v>
       </c>
       <c r="AG18" s="1">
-        <v>960.994000</v>
+        <v>960.99400000000003</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.156800</v>
+        <v>-75.156800000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>20965.898941</v>
+        <v>20965.898940999999</v>
       </c>
       <c r="AK18" s="1">
         <v>5.823861</v>
       </c>
       <c r="AL18" s="1">
-        <v>968.266000</v>
+        <v>968.26599999999996</v>
       </c>
       <c r="AM18" s="1">
-        <v>-80.053400</v>
+        <v>-80.053399999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>20976.393296</v>
+        <v>20976.393295999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>5.826776</v>
+        <v>5.8267759999999997</v>
       </c>
       <c r="AQ18" s="1">
-        <v>976.428000</v>
+        <v>976.428</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.807800</v>
+        <v>-91.8078</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>20987.132176</v>
+        <v>20987.132175999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>5.829759</v>
+        <v>5.8297590000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>986.362000</v>
+        <v>986.36199999999997</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.693000</v>
+        <v>-109.693</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>20997.780788</v>
       </c>
       <c r="AZ18" s="1">
-        <v>5.832717</v>
+        <v>5.8327169999999997</v>
       </c>
       <c r="BA18" s="1">
-        <v>994.770000</v>
+        <v>994.77</v>
       </c>
       <c r="BB18" s="1">
-        <v>-125.445000</v>
+        <v>-125.44499999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>21008.382772</v>
+        <v>21008.382772000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>5.835662</v>
+        <v>5.8356620000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1033.760000</v>
+        <v>1033.76</v>
       </c>
       <c r="BG18" s="1">
-        <v>-198.048000</v>
+        <v>-198.048</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>21019.717349</v>
+        <v>21019.717348999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>5.838810</v>
+        <v>5.8388099999999996</v>
       </c>
       <c r="BK18" s="1">
-        <v>1100.940000</v>
+        <v>1100.94</v>
       </c>
       <c r="BL18" s="1">
-        <v>-315.746000</v>
+        <v>-315.74599999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>21030.134823</v>
@@ -4788,75 +5204,75 @@
         <v>5.841704</v>
       </c>
       <c r="BP18" s="1">
-        <v>1209.760000</v>
+        <v>1209.76</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-501.389000</v>
+        <v>-501.38900000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>21041.115753</v>
+        <v>21041.115752999998</v>
       </c>
       <c r="BT18" s="1">
         <v>5.844754</v>
       </c>
       <c r="BU18" s="1">
-        <v>1332.080000</v>
+        <v>1332.08</v>
       </c>
       <c r="BV18" s="1">
-        <v>-705.103000</v>
+        <v>-705.10299999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>21052.342700</v>
+        <v>21052.342700000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>5.847873</v>
+        <v>5.8478729999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1469.400000</v>
+        <v>1469.4</v>
       </c>
       <c r="CA18" s="1">
-        <v>-922.846000</v>
+        <v>-922.846</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>21064.625130</v>
+        <v>21064.62513</v>
       </c>
       <c r="CD18" s="1">
-        <v>5.851285</v>
+        <v>5.8512849999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>1829.980000</v>
+        <v>1829.98</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1440.110000</v>
+        <v>-1440.11</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>20892.853117</v>
+        <v>20892.853116999999</v>
       </c>
       <c r="B19" s="1">
-        <v>5.803570</v>
+        <v>5.8035699999999997</v>
       </c>
       <c r="C19" s="1">
-        <v>895.132000</v>
+        <v>895.13199999999995</v>
       </c>
       <c r="D19" s="1">
-        <v>-199.593000</v>
+        <v>-199.59299999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>20903.246315</v>
@@ -4865,178 +5281,178 @@
         <v>5.806457</v>
       </c>
       <c r="H19" s="1">
-        <v>912.603000</v>
+        <v>912.60299999999995</v>
       </c>
       <c r="I19" s="1">
-        <v>-168.865000</v>
+        <v>-168.86500000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>20913.821491</v>
+        <v>20913.821490999999</v>
       </c>
       <c r="L19" s="1">
-        <v>5.809395</v>
+        <v>5.8093950000000003</v>
       </c>
       <c r="M19" s="1">
-        <v>935.863000</v>
+        <v>935.86300000000006</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.923000</v>
+        <v>-119.923</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>20924.414548</v>
+        <v>20924.414548000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.812337</v>
+        <v>5.8123370000000003</v>
       </c>
       <c r="R19" s="1">
-        <v>942.794000</v>
+        <v>942.79399999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.604000</v>
+        <v>-103.604</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>20934.789864</v>
+        <v>20934.789863999998</v>
       </c>
       <c r="V19" s="1">
-        <v>5.815219</v>
+        <v>5.8152189999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>949.120000</v>
+        <v>949.12</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.894600</v>
+        <v>-88.894599999999997</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>20945.319929</v>
+        <v>20945.319929000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>5.818144</v>
+        <v>5.8181440000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>956.210000</v>
+        <v>956.21</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.383400</v>
+        <v>-77.383399999999995</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>20955.821258</v>
       </c>
       <c r="AF19" s="1">
-        <v>5.821061</v>
+        <v>5.8210610000000003</v>
       </c>
       <c r="AG19" s="1">
-        <v>960.953000</v>
+        <v>960.95299999999997</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.284200</v>
+        <v>-75.284199999999998</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>20966.249116</v>
+        <v>20966.249115999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>5.823958</v>
+        <v>5.8239580000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>968.258000</v>
+        <v>968.25800000000004</v>
       </c>
       <c r="AM19" s="1">
-        <v>-80.031200</v>
+        <v>-80.031199999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>20977.116463</v>
+        <v>20977.116462999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>5.826977</v>
+        <v>5.8269770000000003</v>
       </c>
       <c r="AQ19" s="1">
-        <v>976.399000</v>
+        <v>976.399</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.817600</v>
+        <v>-91.817599999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>20987.860800</v>
+        <v>20987.860799999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>5.829961</v>
+        <v>5.8299609999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>986.384000</v>
+        <v>986.38400000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.711000</v>
+        <v>-109.711</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>20998.141912</v>
+        <v>20998.141911999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>5.832817</v>
+        <v>5.8328170000000004</v>
       </c>
       <c r="BA19" s="1">
-        <v>994.749000</v>
+        <v>994.74900000000002</v>
       </c>
       <c r="BB19" s="1">
-        <v>-125.445000</v>
+        <v>-125.44499999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>21008.762212</v>
+        <v>21008.762212000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>5.835767</v>
+        <v>5.8357669999999997</v>
       </c>
       <c r="BF19" s="1">
-        <v>1033.750000</v>
+        <v>1033.75</v>
       </c>
       <c r="BG19" s="1">
-        <v>-198.049000</v>
+        <v>-198.04900000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>21020.090341</v>
+        <v>21020.090340999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>5.838914</v>
+        <v>5.8389139999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1100.830000</v>
+        <v>1100.83</v>
       </c>
       <c r="BL19" s="1">
-        <v>-315.760000</v>
+        <v>-315.76</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>21030.863447</v>
@@ -5045,422 +5461,422 @@
         <v>5.841907</v>
       </c>
       <c r="BP19" s="1">
-        <v>1209.780000</v>
+        <v>1209.78</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-501.368000</v>
+        <v>-501.36799999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>21041.844872</v>
+        <v>21041.844872000001</v>
       </c>
       <c r="BT19" s="1">
         <v>5.844957</v>
       </c>
       <c r="BU19" s="1">
-        <v>1332.140000</v>
+        <v>1332.14</v>
       </c>
       <c r="BV19" s="1">
-        <v>-705.065000</v>
+        <v>-705.06500000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>21052.475659</v>
       </c>
       <c r="BY19" s="1">
-        <v>5.847910</v>
+        <v>5.8479099999999997</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1469.700000</v>
+        <v>1469.7</v>
       </c>
       <c r="CA19" s="1">
-        <v>-922.931000</v>
+        <v>-922.93100000000004</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>21065.158825</v>
+        <v>21065.158824999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>5.851433</v>
+        <v>5.8514330000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1831.140000</v>
+        <v>1831.14</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1439.070000</v>
+        <v>-1439.07</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>20893.267805</v>
+        <v>20893.267804999999</v>
       </c>
       <c r="B20" s="1">
-        <v>5.803686</v>
+        <v>5.8036859999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>894.990000</v>
+        <v>894.99</v>
       </c>
       <c r="D20" s="1">
-        <v>-199.640000</v>
+        <v>-199.64</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>20903.662960</v>
+        <v>20903.662960000001</v>
       </c>
       <c r="G20" s="1">
-        <v>5.806573</v>
+        <v>5.8065730000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>912.627000</v>
+        <v>912.62699999999995</v>
       </c>
       <c r="I20" s="1">
-        <v>-168.605000</v>
+        <v>-168.60499999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>20914.116145</v>
       </c>
       <c r="L20" s="1">
-        <v>5.809477</v>
+        <v>5.8094770000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>936.123000</v>
+        <v>936.12300000000005</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.755000</v>
+        <v>-119.755</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>20924.654115</v>
+        <v>20924.654115000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>5.812404</v>
+        <v>5.8124039999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>942.799000</v>
+        <v>942.79899999999998</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.619000</v>
+        <v>-103.619</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>20935.137557</v>
+        <v>20935.137556999998</v>
       </c>
       <c r="V20" s="1">
-        <v>5.815316</v>
+        <v>5.8153160000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>948.994000</v>
+        <v>948.99400000000003</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.814100</v>
+        <v>-88.814099999999996</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>20945.669641</v>
       </c>
       <c r="AA20" s="1">
-        <v>5.818242</v>
+        <v>5.8182419999999997</v>
       </c>
       <c r="AB20" s="1">
-        <v>956.320000</v>
+        <v>956.32</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.338100</v>
+        <v>-77.338099999999997</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>20956.163465</v>
+        <v>20956.163465000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>5.821157</v>
+        <v>5.8211570000000004</v>
       </c>
       <c r="AG20" s="1">
-        <v>960.970000</v>
+        <v>960.97</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.061500</v>
+        <v>-75.061499999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>20966.945499</v>
+        <v>20966.945499000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>5.824152</v>
+        <v>5.8241519999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>968.254000</v>
+        <v>968.25400000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-80.044100</v>
+        <v>-80.0441</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>20977.502845</v>
+        <v>20977.502844999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>5.827084</v>
+        <v>5.8270840000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>976.441000</v>
+        <v>976.44100000000003</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.809100</v>
+        <v>-91.809100000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>20988.250655</v>
       </c>
       <c r="AU20" s="1">
-        <v>5.830070</v>
+        <v>5.8300700000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>986.389000</v>
+        <v>986.38900000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.701000</v>
+        <v>-109.70099999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>20998.500013</v>
+        <v>20998.500013000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>5.832917</v>
+        <v>5.8329170000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>994.771000</v>
+        <v>994.77099999999996</v>
       </c>
       <c r="BB20" s="1">
-        <v>-125.450000</v>
+        <v>-125.45</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>21009.155045</v>
       </c>
       <c r="BE20" s="1">
-        <v>5.835876</v>
+        <v>5.8358759999999998</v>
       </c>
       <c r="BF20" s="1">
-        <v>1033.760000</v>
+        <v>1033.76</v>
       </c>
       <c r="BG20" s="1">
-        <v>-198.049000</v>
+        <v>-198.04900000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>21020.773358</v>
+        <v>21020.773357999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>5.839104</v>
+        <v>5.8391039999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1100.930000</v>
+        <v>1100.93</v>
       </c>
       <c r="BL20" s="1">
-        <v>-315.731000</v>
+        <v>-315.73099999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>21031.372343</v>
+        <v>21031.372342999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>5.842048</v>
+        <v>5.8420480000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1209.750000</v>
+        <v>1209.75</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-501.411000</v>
+        <v>-501.411</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>21041.973337</v>
+        <v>21041.973336999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>5.844993</v>
+        <v>5.8449929999999997</v>
       </c>
       <c r="BU20" s="1">
-        <v>1332.190000</v>
+        <v>1332.19</v>
       </c>
       <c r="BV20" s="1">
-        <v>-705.053000</v>
+        <v>-705.053</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>21052.898218</v>
+        <v>21052.898217999998</v>
       </c>
       <c r="BY20" s="1">
-        <v>5.848027</v>
+        <v>5.8480270000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1469.620000</v>
+        <v>1469.62</v>
       </c>
       <c r="CA20" s="1">
-        <v>-922.853000</v>
+        <v>-922.85299999999995</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>21065.696521</v>
+        <v>21065.696521000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>5.851582</v>
+        <v>5.8515819999999996</v>
       </c>
       <c r="CE20" s="1">
-        <v>1829.710000</v>
+        <v>1829.71</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1439.330000</v>
+        <v>-1439.33</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>20893.562428</v>
+        <v>20893.562428000001</v>
       </c>
       <c r="B21" s="1">
-        <v>5.803767</v>
+        <v>5.8037669999999997</v>
       </c>
       <c r="C21" s="1">
-        <v>894.859000</v>
+        <v>894.85900000000004</v>
       </c>
       <c r="D21" s="1">
-        <v>-199.564000</v>
+        <v>-199.56399999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>20903.941711</v>
+        <v>20903.941710999999</v>
       </c>
       <c r="G21" s="1">
-        <v>5.806650</v>
+        <v>5.8066500000000003</v>
       </c>
       <c r="H21" s="1">
-        <v>912.894000</v>
+        <v>912.89400000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-168.648000</v>
+        <v>-168.648</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>20914.460337</v>
       </c>
       <c r="L21" s="1">
-        <v>5.809572</v>
+        <v>5.8095720000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>936.046000</v>
+        <v>936.04600000000005</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.811000</v>
+        <v>-119.81100000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>20925.000820</v>
+        <v>20925.000820000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>5.812500</v>
+        <v>5.8125</v>
       </c>
       <c r="R21" s="1">
-        <v>942.781000</v>
+        <v>942.78099999999995</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.601000</v>
+        <v>-103.601</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>20935.467406</v>
       </c>
       <c r="V21" s="1">
-        <v>5.815408</v>
+        <v>5.8154079999999997</v>
       </c>
       <c r="W21" s="1">
-        <v>949.125000</v>
+        <v>949.125</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.841200</v>
+        <v>-88.841200000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>20946.367480</v>
+        <v>20946.367480000001</v>
       </c>
       <c r="AA21" s="1">
         <v>5.818435</v>
       </c>
       <c r="AB21" s="1">
-        <v>956.288000</v>
+        <v>956.28800000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.328300</v>
+        <v>-77.328299999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>20956.849692</v>
       </c>
       <c r="AF21" s="1">
-        <v>5.821347</v>
+        <v>5.8213470000000003</v>
       </c>
       <c r="AG21" s="1">
-        <v>961.021000</v>
+        <v>961.02099999999996</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.224100</v>
+        <v>-75.224100000000007</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>20967.294683</v>
@@ -5469,694 +5885,694 @@
         <v>5.824249</v>
       </c>
       <c r="AL21" s="1">
-        <v>968.249000</v>
+        <v>968.24900000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-80.053500</v>
+        <v>-80.0535</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>20977.861490</v>
+        <v>20977.861489999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>5.827184</v>
+        <v>5.8271839999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>976.426000</v>
+        <v>976.42600000000004</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.807500</v>
+        <v>-91.807500000000005</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>20988.614755</v>
+        <v>20988.614754999999</v>
       </c>
       <c r="AU21" s="1">
         <v>5.830171</v>
       </c>
       <c r="AV21" s="1">
-        <v>986.402000</v>
+        <v>986.40200000000004</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.692000</v>
+        <v>-109.69199999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>20999.162491</v>
+        <v>20999.162490999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>5.833101</v>
+        <v>5.8331010000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>994.754000</v>
+        <v>994.75400000000002</v>
       </c>
       <c r="BB21" s="1">
-        <v>-125.435000</v>
+        <v>-125.435</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>21009.830100</v>
+        <v>21009.830099999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>5.836064</v>
+        <v>5.8360640000000004</v>
       </c>
       <c r="BF21" s="1">
-        <v>1033.770000</v>
+        <v>1033.77</v>
       </c>
       <c r="BG21" s="1">
-        <v>-198.037000</v>
+        <v>-198.03700000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>21021.216755</v>
+        <v>21021.216755000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>5.839227</v>
+        <v>5.8392270000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1100.910000</v>
+        <v>1100.9100000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-315.776000</v>
+        <v>-315.77600000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>21031.789974</v>
+        <v>21031.789973999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>5.842164</v>
+        <v>5.8421640000000004</v>
       </c>
       <c r="BP21" s="1">
-        <v>1209.750000</v>
+        <v>1209.75</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-501.400000</v>
+        <v>-501.4</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>21042.383540</v>
+        <v>21042.383539999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>5.845107</v>
+        <v>5.8451069999999996</v>
       </c>
       <c r="BU21" s="1">
-        <v>1332.220000</v>
+        <v>1332.22</v>
       </c>
       <c r="BV21" s="1">
-        <v>-705.076000</v>
+        <v>-705.07600000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>21053.318329</v>
+        <v>21053.318329000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>5.848144</v>
+        <v>5.8481439999999996</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1469.490000</v>
+        <v>1469.49</v>
       </c>
       <c r="CA21" s="1">
-        <v>-922.832000</v>
+        <v>-922.83199999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>21066.237656</v>
+        <v>21066.237656000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>5.851733</v>
+        <v>5.8517330000000003</v>
       </c>
       <c r="CE21" s="1">
-        <v>1830.760000</v>
+        <v>1830.76</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1440.110000</v>
+        <v>-1440.11</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>20893.899211</v>
       </c>
       <c r="B22" s="1">
-        <v>5.803861</v>
+        <v>5.8038610000000004</v>
       </c>
       <c r="C22" s="1">
-        <v>895.114000</v>
+        <v>895.11400000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>-199.509000</v>
+        <v>-199.50899999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>20904.285902</v>
       </c>
       <c r="G22" s="1">
-        <v>5.806746</v>
+        <v>5.8067460000000004</v>
       </c>
       <c r="H22" s="1">
-        <v>912.859000</v>
+        <v>912.85900000000004</v>
       </c>
       <c r="I22" s="1">
-        <v>-168.851000</v>
+        <v>-168.851</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>20914.810018</v>
       </c>
       <c r="L22" s="1">
-        <v>5.809669</v>
+        <v>5.8096690000000004</v>
       </c>
       <c r="M22" s="1">
-        <v>936.046000</v>
+        <v>936.04600000000005</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.810000</v>
+        <v>-119.81</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>20925.695715</v>
+        <v>20925.695715000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>5.812693</v>
+        <v>5.8126930000000003</v>
       </c>
       <c r="R22" s="1">
-        <v>942.770000</v>
+        <v>942.77</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.543000</v>
+        <v>-103.54300000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>20936.168249</v>
+        <v>20936.168248999998</v>
       </c>
       <c r="V22" s="1">
-        <v>5.815602</v>
+        <v>5.8156020000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>949.135000</v>
+        <v>949.13499999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.808900</v>
+        <v>-88.808899999999994</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>20946.716167</v>
+        <v>20946.716166999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>5.818532</v>
+        <v>5.8185320000000003</v>
       </c>
       <c r="AB22" s="1">
-        <v>956.307000</v>
+        <v>956.30700000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.339500</v>
+        <v>-77.339500000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>20957.196632</v>
+        <v>20957.196631999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>5.821444</v>
+        <v>5.8214439999999996</v>
       </c>
       <c r="AG22" s="1">
-        <v>961.158000</v>
+        <v>961.15800000000002</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.328900</v>
+        <v>-75.328900000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>20967.644362</v>
+        <v>20967.644361999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>5.824346</v>
+        <v>5.8243460000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>968.264000</v>
+        <v>968.26400000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-80.030600</v>
+        <v>-80.030600000000007</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>20978.522620</v>
+        <v>20978.52262</v>
       </c>
       <c r="AP22" s="1">
-        <v>5.827367</v>
+        <v>5.8273669999999997</v>
       </c>
       <c r="AQ22" s="1">
-        <v>976.422000</v>
+        <v>976.42200000000003</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.821200</v>
+        <v>-91.821200000000005</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>20989.288782</v>
       </c>
       <c r="AU22" s="1">
-        <v>5.830358</v>
+        <v>5.8303580000000004</v>
       </c>
       <c r="AV22" s="1">
-        <v>986.378000</v>
+        <v>986.37800000000004</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.710000</v>
+        <v>-109.71</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>20999.576336</v>
+        <v>20999.576335999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>5.833216</v>
+        <v>5.8332160000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>994.754000</v>
+        <v>994.75400000000002</v>
       </c>
       <c r="BB22" s="1">
-        <v>-125.442000</v>
+        <v>-125.44199999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>21010.235826</v>
       </c>
       <c r="BE22" s="1">
-        <v>5.836177</v>
+        <v>5.8361770000000002</v>
       </c>
       <c r="BF22" s="1">
-        <v>1033.760000</v>
+        <v>1033.76</v>
       </c>
       <c r="BG22" s="1">
-        <v>-198.042000</v>
+        <v>-198.042</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>21021.592758</v>
+        <v>21021.592757999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>5.839331</v>
+        <v>5.8393309999999996</v>
       </c>
       <c r="BK22" s="1">
-        <v>1100.850000</v>
+        <v>1100.8499999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-315.760000</v>
+        <v>-315.76</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>21032.188261</v>
+        <v>21032.188260999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>5.842275</v>
+        <v>5.8422749999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1209.800000</v>
+        <v>1209.8</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-501.387000</v>
+        <v>-501.387</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>21042.819015</v>
+        <v>21042.819015000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>5.845228</v>
+        <v>5.8452279999999996</v>
       </c>
       <c r="BU22" s="1">
-        <v>1332.310000</v>
+        <v>1332.31</v>
       </c>
       <c r="BV22" s="1">
-        <v>-705.103000</v>
+        <v>-705.10299999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>21053.764760</v>
+        <v>21053.764759999998</v>
       </c>
       <c r="BY22" s="1">
         <v>5.848268</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1469.490000</v>
+        <v>1469.49</v>
       </c>
       <c r="CA22" s="1">
-        <v>-922.919000</v>
+        <v>-922.91899999999998</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>21066.777800</v>
+        <v>21066.7778</v>
       </c>
       <c r="CD22" s="1">
-        <v>5.851883</v>
+        <v>5.8518829999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1830.580000</v>
+        <v>1830.58</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1438.440000</v>
+        <v>-1438.44</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>20894.242909</v>
+        <v>20894.242909000001</v>
       </c>
       <c r="B23" s="1">
-        <v>5.803956</v>
+        <v>5.8039560000000003</v>
       </c>
       <c r="C23" s="1">
-        <v>895.096000</v>
+        <v>895.096</v>
       </c>
       <c r="D23" s="1">
-        <v>-199.730000</v>
+        <v>-199.73</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>20904.632607</v>
       </c>
       <c r="G23" s="1">
-        <v>5.806842</v>
+        <v>5.8068419999999996</v>
       </c>
       <c r="H23" s="1">
-        <v>912.841000</v>
+        <v>912.84100000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-168.809000</v>
+        <v>-168.809</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>20915.502432</v>
+        <v>20915.502432000001</v>
       </c>
       <c r="L23" s="1">
-        <v>5.809862</v>
+        <v>5.8098619999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>936.055000</v>
+        <v>936.05499999999995</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.714000</v>
+        <v>-119.714</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>20926.045921</v>
+        <v>20926.045921000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>5.812791</v>
+        <v>5.8127909999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>942.799000</v>
+        <v>942.79899999999998</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.573000</v>
+        <v>-103.57299999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>20936.511971</v>
       </c>
       <c r="V23" s="1">
-        <v>5.815698</v>
+        <v>5.8156980000000003</v>
       </c>
       <c r="W23" s="1">
-        <v>949.134000</v>
+        <v>949.13400000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.883200</v>
+        <v>-88.883200000000002</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>20947.063399</v>
+        <v>20947.063398999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>5.818629</v>
+        <v>5.8186289999999996</v>
       </c>
       <c r="AB23" s="1">
-        <v>956.314000</v>
+        <v>956.31399999999996</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.371000</v>
+        <v>-77.370999999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>20957.539368</v>
+        <v>20957.539368000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>5.821539</v>
+        <v>5.8215389999999996</v>
       </c>
       <c r="AG23" s="1">
-        <v>960.930000</v>
+        <v>960.93</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.151400</v>
+        <v>-75.151399999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>20968.297593</v>
+        <v>20968.297592999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>5.824527</v>
+        <v>5.8245269999999998</v>
       </c>
       <c r="AL23" s="1">
-        <v>968.250000</v>
+        <v>968.25</v>
       </c>
       <c r="AM23" s="1">
-        <v>-80.035900</v>
+        <v>-80.035899999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>20978.973019</v>
+        <v>20978.973019000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>5.827493</v>
+        <v>5.8274929999999996</v>
       </c>
       <c r="AQ23" s="1">
-        <v>976.442000</v>
+        <v>976.44200000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.805900</v>
+        <v>-91.805899999999994</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>20989.741165</v>
+        <v>20989.741164999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>5.830484</v>
+        <v>5.8304840000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>986.409000</v>
+        <v>986.40899999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.699000</v>
+        <v>-109.699</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>20999.958257</v>
+        <v>20999.958256999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>5.833322</v>
+        <v>5.8333219999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>994.794000</v>
+        <v>994.79399999999998</v>
       </c>
       <c r="BB23" s="1">
-        <v>-125.425000</v>
+        <v>-125.425</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>21010.627679</v>
+        <v>21010.627679000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>5.836285</v>
+        <v>5.8362850000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1033.760000</v>
+        <v>1033.76</v>
       </c>
       <c r="BG23" s="1">
-        <v>-198.044000</v>
+        <v>-198.04400000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>21021.966739</v>
       </c>
       <c r="BJ23" s="1">
-        <v>5.839435</v>
+        <v>5.8394349999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1100.870000</v>
+        <v>1100.8699999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-315.706000</v>
+        <v>-315.70600000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>21032.612372</v>
       </c>
       <c r="BO23" s="1">
-        <v>5.842392</v>
+        <v>5.8423920000000003</v>
       </c>
       <c r="BP23" s="1">
-        <v>1209.770000</v>
+        <v>1209.77</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-501.380000</v>
+        <v>-501.38</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>21043.247559</v>
+        <v>21043.247558999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>5.845347</v>
+        <v>5.8453470000000003</v>
       </c>
       <c r="BU23" s="1">
-        <v>1332.330000</v>
+        <v>1332.33</v>
       </c>
       <c r="BV23" s="1">
-        <v>-705.020000</v>
+        <v>-705.02</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>21054.184377</v>
+        <v>21054.184377000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>5.848385</v>
+        <v>5.8483850000000004</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1469.670000</v>
+        <v>1469.67</v>
       </c>
       <c r="CA23" s="1">
-        <v>-922.759000</v>
+        <v>-922.75900000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>21067.318433</v>
       </c>
       <c r="CD23" s="1">
-        <v>5.852033</v>
+        <v>5.8520329999999996</v>
       </c>
       <c r="CE23" s="1">
-        <v>1829.670000</v>
+        <v>1829.67</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1439.920000</v>
+        <v>-1439.92</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>20894.926427</v>
+        <v>20894.926426999999</v>
       </c>
       <c r="B24" s="1">
-        <v>5.804146</v>
+        <v>5.8041460000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>895.116000</v>
+        <v>895.11599999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-199.640000</v>
+        <v>-199.64</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>20905.321551</v>
+        <v>20905.321551000001</v>
       </c>
       <c r="G24" s="1">
-        <v>5.807034</v>
+        <v>5.8070339999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>912.707000</v>
+        <v>912.70699999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-168.893000</v>
+        <v>-168.893</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>20915.848639</v>
@@ -6165,739 +6581,740 @@
         <v>5.809958</v>
       </c>
       <c r="M24" s="1">
-        <v>936.030000</v>
+        <v>936.03</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.808000</v>
+        <v>-119.80800000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>20926.393616</v>
+        <v>20926.393616000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>5.812887</v>
+        <v>5.8128869999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>942.789000</v>
+        <v>942.78899999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.572000</v>
+        <v>-103.572</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>20936.856195</v>
       </c>
       <c r="V24" s="1">
-        <v>5.815793</v>
+        <v>5.8157930000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>949.118000</v>
+        <v>949.11800000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.849200</v>
+        <v>-88.849199999999996</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>20947.721092</v>
       </c>
       <c r="AA24" s="1">
-        <v>5.818811</v>
+        <v>5.8188110000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>956.270000</v>
+        <v>956.27</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.277500</v>
+        <v>-77.277500000000003</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>20958.191608</v>
+        <v>20958.191608000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>5.821720</v>
+        <v>5.82172</v>
       </c>
       <c r="AG24" s="1">
-        <v>961.000000</v>
+        <v>961</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.210100</v>
+        <v>-75.210099999999997</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>20968.685497</v>
+        <v>20968.685496999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>5.824635</v>
+        <v>5.8246349999999998</v>
       </c>
       <c r="AL24" s="1">
-        <v>968.250000</v>
+        <v>968.25</v>
       </c>
       <c r="AM24" s="1">
-        <v>-80.053300</v>
+        <v>-80.053299999999993</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>20979.332091</v>
       </c>
       <c r="AP24" s="1">
-        <v>5.827592</v>
+        <v>5.8275920000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>976.412000</v>
+        <v>976.41200000000003</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.822800</v>
+        <v>-91.822800000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>20990.107677</v>
       </c>
       <c r="AU24" s="1">
-        <v>5.830585</v>
+        <v>5.8305850000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>986.380000</v>
+        <v>986.38</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.691000</v>
+        <v>-109.691</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>21000.316336</v>
       </c>
       <c r="AZ24" s="1">
-        <v>5.833421</v>
+        <v>5.8334210000000004</v>
       </c>
       <c r="BA24" s="1">
-        <v>994.786000</v>
+        <v>994.78599999999994</v>
       </c>
       <c r="BB24" s="1">
-        <v>-125.428000</v>
+        <v>-125.428</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>21011.042817</v>
+        <v>21011.042817000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>5.836401</v>
+        <v>5.8364010000000004</v>
       </c>
       <c r="BF24" s="1">
-        <v>1033.770000</v>
+        <v>1033.77</v>
       </c>
       <c r="BG24" s="1">
-        <v>-198.056000</v>
+        <v>-198.05600000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>21022.375442</v>
       </c>
       <c r="BJ24" s="1">
-        <v>5.839549</v>
+        <v>5.8395489999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1100.890000</v>
+        <v>1100.8900000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-315.763000</v>
+        <v>-315.76299999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>21033.007188</v>
       </c>
       <c r="BO24" s="1">
-        <v>5.842502</v>
+        <v>5.8425019999999996</v>
       </c>
       <c r="BP24" s="1">
-        <v>1209.770000</v>
+        <v>1209.77</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-501.373000</v>
+        <v>-501.37299999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>21043.658742</v>
       </c>
       <c r="BT24" s="1">
-        <v>5.845461</v>
+        <v>5.8454610000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1332.410000</v>
+        <v>1332.41</v>
       </c>
       <c r="BV24" s="1">
-        <v>-705.048000</v>
+        <v>-705.048</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>21054.609416</v>
+        <v>21054.609415999999</v>
       </c>
       <c r="BY24" s="1">
         <v>5.848503</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1469.680000</v>
+        <v>1469.68</v>
       </c>
       <c r="CA24" s="1">
-        <v>-922.798000</v>
+        <v>-922.798</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>21067.859047</v>
+        <v>21067.859047000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>5.852183</v>
+        <v>5.8521830000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1831.310000</v>
+        <v>1831.31</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1439.090000</v>
+        <v>-1439.09</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>20895.269658</v>
+        <v>20895.269658000001</v>
       </c>
       <c r="B25" s="1">
-        <v>5.804242</v>
+        <v>5.8042420000000003</v>
       </c>
       <c r="C25" s="1">
-        <v>894.927000</v>
+        <v>894.92700000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-199.614000</v>
+        <v>-199.614</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>20905.667261</v>
+        <v>20905.667260999999</v>
       </c>
       <c r="G25" s="1">
-        <v>5.807130</v>
+        <v>5.8071299999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>912.653000</v>
+        <v>912.65300000000002</v>
       </c>
       <c r="I25" s="1">
-        <v>-169.151000</v>
+        <v>-169.15100000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>20916.192894</v>
       </c>
       <c r="L25" s="1">
-        <v>5.810054</v>
+        <v>5.8100540000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>936.010000</v>
+        <v>936.01</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.736000</v>
+        <v>-119.736</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>20927.050784</v>
+        <v>20927.050783999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>5.813070</v>
+        <v>5.8130699999999997</v>
       </c>
       <c r="R25" s="1">
-        <v>942.783000</v>
+        <v>942.78300000000002</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.609000</v>
+        <v>-103.60899999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>20937.505458</v>
       </c>
       <c r="V25" s="1">
-        <v>5.815974</v>
+        <v>5.8159739999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>949.053000</v>
+        <v>949.053</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.784900</v>
+        <v>-88.784899999999993</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>20948.108933</v>
       </c>
       <c r="AA25" s="1">
-        <v>5.818919</v>
+        <v>5.8189190000000002</v>
       </c>
       <c r="AB25" s="1">
-        <v>956.347000</v>
+        <v>956.34699999999998</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.360400</v>
+        <v>-77.360399999999998</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>20958.569064</v>
+        <v>20958.569063999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>5.821825</v>
+        <v>5.8218249999999996</v>
       </c>
       <c r="AG25" s="1">
-        <v>960.922000</v>
+        <v>960.92200000000003</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.177200</v>
+        <v>-75.177199999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>20969.038154</v>
+        <v>20969.038154000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>5.824733</v>
+        <v>5.8247330000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>968.276000</v>
+        <v>968.27599999999995</v>
       </c>
       <c r="AM25" s="1">
-        <v>-80.031300</v>
+        <v>-80.031300000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>20979.690698</v>
+        <v>20979.690697999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>5.827692</v>
+        <v>5.8276919999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>976.414000</v>
+        <v>976.41399999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.798800</v>
+        <v>-91.7988</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>20990.473228</v>
+        <v>20990.473227999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>5.830687</v>
+        <v>5.8306870000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>986.375000</v>
+        <v>986.375</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.665000</v>
+        <v>-109.66500000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>21000.728510</v>
+        <v>21000.728510000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>5.833536</v>
+        <v>5.8335359999999996</v>
       </c>
       <c r="BA25" s="1">
-        <v>994.774000</v>
+        <v>994.774</v>
       </c>
       <c r="BB25" s="1">
-        <v>-125.439000</v>
+        <v>-125.43899999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>21011.350833</v>
       </c>
       <c r="BE25" s="1">
-        <v>5.836486</v>
+        <v>5.8364859999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1033.760000</v>
+        <v>1033.76</v>
       </c>
       <c r="BG25" s="1">
-        <v>-198.017000</v>
+        <v>-198.017</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>21022.742451</v>
+        <v>21022.742450999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>5.839651</v>
+        <v>5.8396509999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1100.900000</v>
+        <v>1100.9000000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-315.707000</v>
+        <v>-315.70699999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>21033.428261</v>
+        <v>21033.428261000001</v>
       </c>
       <c r="BO25" s="1">
         <v>5.842619</v>
       </c>
       <c r="BP25" s="1">
-        <v>1209.800000</v>
+        <v>1209.8</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-501.389000</v>
+        <v>-501.38900000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>21044.086789</v>
+        <v>21044.086789000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>5.845580</v>
+        <v>5.84558</v>
       </c>
       <c r="BU25" s="1">
-        <v>1332.540000</v>
+        <v>1332.54</v>
       </c>
       <c r="BV25" s="1">
-        <v>-705.124000</v>
+        <v>-705.12400000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>21055.054822</v>
+        <v>21055.054821999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>5.848626</v>
+        <v>5.8486260000000003</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1469.620000</v>
+        <v>1469.62</v>
       </c>
       <c r="CA25" s="1">
-        <v>-922.856000</v>
+        <v>-922.85599999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>21068.397701</v>
+        <v>21068.397701000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>5.852333</v>
+        <v>5.8523329999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>1829.740000</v>
+        <v>1829.74</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1439.020000</v>
+        <v>-1439.02</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>20895.611866</v>
+        <v>20895.611865999999</v>
       </c>
       <c r="B26" s="1">
-        <v>5.804337</v>
+        <v>5.8043370000000003</v>
       </c>
       <c r="C26" s="1">
-        <v>894.925000</v>
+        <v>894.92499999999995</v>
       </c>
       <c r="D26" s="1">
-        <v>-199.707000</v>
+        <v>-199.70699999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>20906.020412</v>
+        <v>20906.020412000002</v>
       </c>
       <c r="G26" s="1">
-        <v>5.807228</v>
+        <v>5.8072280000000003</v>
       </c>
       <c r="H26" s="1">
-        <v>912.825000</v>
+        <v>912.82500000000005</v>
       </c>
       <c r="I26" s="1">
-        <v>-168.792000</v>
+        <v>-168.792</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>20916.841166</v>
+        <v>20916.841165999998</v>
       </c>
       <c r="L26" s="1">
-        <v>5.810234</v>
+        <v>5.8102340000000003</v>
       </c>
       <c r="M26" s="1">
-        <v>936.035000</v>
+        <v>936.03499999999997</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.910000</v>
+        <v>-119.91</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>20927.441631</v>
+        <v>20927.441631000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>5.813178</v>
+        <v>5.8131779999999997</v>
       </c>
       <c r="R26" s="1">
-        <v>942.788000</v>
+        <v>942.78800000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.611000</v>
+        <v>-103.611</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>20937.893826</v>
       </c>
       <c r="V26" s="1">
-        <v>5.816082</v>
+        <v>5.8160819999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>949.084000</v>
+        <v>949.08399999999995</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.836900</v>
+        <v>-88.8369</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>20948.458117</v>
+        <v>20948.458116999998</v>
       </c>
       <c r="AA26" s="1">
-        <v>5.819016</v>
+        <v>5.8190160000000004</v>
       </c>
       <c r="AB26" s="1">
-        <v>956.329000</v>
+        <v>956.32899999999995</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.374000</v>
+        <v>-77.373999999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>20958.951478</v>
+        <v>20958.951477999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>5.821931</v>
+        <v>5.8219310000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>961.015000</v>
+        <v>961.01499999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.137000</v>
+        <v>-75.137</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>20969.383865</v>
       </c>
       <c r="AK26" s="1">
-        <v>5.824829</v>
+        <v>5.8248290000000003</v>
       </c>
       <c r="AL26" s="1">
-        <v>968.241000</v>
+        <v>968.24099999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-80.053700</v>
+        <v>-80.053700000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>20980.097754</v>
+        <v>20980.097753999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>5.827805</v>
+        <v>5.8278049999999997</v>
       </c>
       <c r="AQ26" s="1">
-        <v>976.414000</v>
+        <v>976.41399999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.795900</v>
+        <v>-91.795900000000003</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>20990.905740</v>
+        <v>20990.905739999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>5.830807</v>
+        <v>5.8308070000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>986.378000</v>
+        <v>986.37800000000004</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.690000</v>
+        <v>-109.69</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>21001.036063</v>
       </c>
       <c r="AZ26" s="1">
-        <v>5.833621</v>
+        <v>5.8336209999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>994.763000</v>
+        <v>994.76300000000003</v>
       </c>
       <c r="BB26" s="1">
-        <v>-125.425000</v>
+        <v>-125.425</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>21011.711583</v>
       </c>
       <c r="BE26" s="1">
-        <v>5.836587</v>
+        <v>5.8365869999999997</v>
       </c>
       <c r="BF26" s="1">
-        <v>1033.740000</v>
+        <v>1033.74</v>
       </c>
       <c r="BG26" s="1">
-        <v>-198.029000</v>
+        <v>-198.029</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>21023.116930</v>
+        <v>21023.11693</v>
       </c>
       <c r="BJ26" s="1">
-        <v>5.839755</v>
+        <v>5.8397550000000003</v>
       </c>
       <c r="BK26" s="1">
-        <v>1100.930000</v>
+        <v>1100.93</v>
       </c>
       <c r="BL26" s="1">
-        <v>-315.747000</v>
+        <v>-315.74700000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>21033.825060</v>
+        <v>21033.825059999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>5.842729</v>
+        <v>5.8427290000000003</v>
       </c>
       <c r="BP26" s="1">
-        <v>1209.770000</v>
+        <v>1209.77</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-501.390000</v>
+        <v>-501.39</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>21044.851621</v>
+        <v>21044.851621000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>5.845792</v>
+        <v>5.8457920000000003</v>
       </c>
       <c r="BU26" s="1">
-        <v>1332.460000</v>
+        <v>1332.46</v>
       </c>
       <c r="BV26" s="1">
-        <v>-705.182000</v>
+        <v>-705.18200000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>21055.488822</v>
+        <v>21055.488821999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>5.848747</v>
+        <v>5.8487470000000004</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1469.570000</v>
+        <v>1469.57</v>
       </c>
       <c r="CA26" s="1">
-        <v>-922.808000</v>
+        <v>-922.80799999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>21068.938836</v>
+        <v>21068.938836000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>5.852483</v>
+        <v>5.8524830000000003</v>
       </c>
       <c r="CE26" s="1">
-        <v>1830.340000</v>
+        <v>1830.34</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1440.230000</v>
+        <v>-1440.23</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>